--- a/Code/Results/Cases/Case_5_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,845 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.85012784480713</v>
+        <v>20.53448296311229</v>
       </c>
       <c r="C2">
-        <v>14.53237602382755</v>
+        <v>11.59123123049537</v>
       </c>
       <c r="D2">
-        <v>3.859503089461402</v>
+        <v>4.538145498033596</v>
       </c>
       <c r="E2">
-        <v>6.068930075214324</v>
+        <v>6.671203890121326</v>
       </c>
       <c r="F2">
-        <v>40.49194429472423</v>
+        <v>30.74355535929239</v>
       </c>
       <c r="I2">
-        <v>26.97462614221382</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.787716655148741</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16.48569497413425</v>
+        <v>16.68322592639878</v>
       </c>
       <c r="L2">
-        <v>8.732697967420039</v>
+        <v>6.166820623421787</v>
       </c>
       <c r="M2">
-        <v>13.27717962795704</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>12.52230042723839</v>
+      </c>
+      <c r="N2">
+        <v>13.70063762769967</v>
+      </c>
+      <c r="O2">
+        <v>24.2335257174669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.57607228237104</v>
+        <v>19.24621931530192</v>
       </c>
       <c r="C3">
-        <v>13.48110963675334</v>
+        <v>10.92748012162756</v>
       </c>
       <c r="D3">
-        <v>3.885552619152629</v>
+        <v>4.615017533727402</v>
       </c>
       <c r="E3">
-        <v>5.983675123790015</v>
+        <v>6.711057938027327</v>
       </c>
       <c r="F3">
-        <v>38.64696254165352</v>
+        <v>29.66674197650061</v>
       </c>
       <c r="I3">
-        <v>26.09562721541299</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6.75960682817503</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>15.32850893225386</v>
+        <v>15.51917566758706</v>
       </c>
       <c r="L3">
-        <v>8.360221314110429</v>
+        <v>6.090555477413289</v>
       </c>
       <c r="M3">
-        <v>12.36817798886655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.02279619313703</v>
+      </c>
+      <c r="N3">
+        <v>13.9347312575767</v>
+      </c>
+      <c r="O3">
+        <v>23.59790125749677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.75373727014891</v>
+        <v>18.42350666736027</v>
       </c>
       <c r="C4">
-        <v>12.80396122282518</v>
+        <v>10.50139000675337</v>
       </c>
       <c r="D4">
-        <v>3.9023725981706</v>
+        <v>4.662491174827103</v>
       </c>
       <c r="E4">
-        <v>5.93434997847717</v>
+        <v>6.736760970963616</v>
       </c>
       <c r="F4">
-        <v>37.50740676896346</v>
+        <v>29.0166503477102</v>
       </c>
       <c r="I4">
-        <v>25.56344088370189</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>6.74544737099942</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14.5820218325154</v>
+        <v>14.76583020714852</v>
       </c>
       <c r="L4">
-        <v>8.130938149123001</v>
+        <v>6.046531596504114</v>
       </c>
       <c r="M4">
-        <v>11.82003084485758</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.71373220281506</v>
+      </c>
+      <c r="N4">
+        <v>14.08199972727054</v>
+      </c>
+      <c r="O4">
+        <v>23.22271681289476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.40839683723761</v>
+        <v>18.08045859758989</v>
       </c>
       <c r="C5">
-        <v>12.51990769391138</v>
+        <v>10.32311334901851</v>
       </c>
       <c r="D5">
-        <v>3.909420552994355</v>
+        <v>4.681927565583704</v>
       </c>
       <c r="E5">
-        <v>5.914995153698912</v>
+        <v>6.747543330260456</v>
       </c>
       <c r="F5">
-        <v>37.04173010241115</v>
+        <v>28.75476236599507</v>
       </c>
       <c r="I5">
-        <v>25.34855093634865</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>6.740423892265936</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>14.26862749562626</v>
+        <v>14.44901623327211</v>
       </c>
       <c r="L5">
-        <v>8.037454773716419</v>
+        <v>6.029292279558916</v>
       </c>
       <c r="M5">
-        <v>11.65096240548766</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.5873545524221</v>
+      </c>
+      <c r="N5">
+        <v>14.14291524250815</v>
+      </c>
+      <c r="O5">
+        <v>23.07366296752662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.35043086560173</v>
+        <v>18.02303229003951</v>
       </c>
       <c r="C6">
-        <v>12.47224688573694</v>
+        <v>10.29323132050235</v>
       </c>
       <c r="D6">
-        <v>3.910602184467791</v>
+        <v>4.685161031493549</v>
       </c>
       <c r="E6">
-        <v>5.911825911286535</v>
+        <v>6.749352300186532</v>
       </c>
       <c r="F6">
-        <v>36.96433960177842</v>
+        <v>28.71146651607089</v>
       </c>
       <c r="I6">
-        <v>25.31299114489858</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>6.739633904218499</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>14.21602906620493</v>
+        <v>14.39581330772774</v>
       </c>
       <c r="L6">
-        <v>8.021932164497839</v>
+        <v>6.0264718928299</v>
       </c>
       <c r="M6">
-        <v>11.62280571264574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.56634873493419</v>
+      </c>
+      <c r="N6">
+        <v>14.15308513691003</v>
+      </c>
+      <c r="O6">
+        <v>23.04914555944075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.74912152129717</v>
+        <v>18.41891142866582</v>
       </c>
       <c r="C7">
-        <v>12.80016340230188</v>
+        <v>10.49900445608122</v>
       </c>
       <c r="D7">
-        <v>3.902466882268305</v>
+        <v>4.662752906933281</v>
       </c>
       <c r="E7">
-        <v>5.934085952640303</v>
+        <v>6.736905139950185</v>
       </c>
       <c r="F7">
-        <v>37.50113116424941</v>
+        <v>29.01310583217514</v>
       </c>
       <c r="I7">
-        <v>25.56053465475345</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6.745376642100544</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.5778327075242</v>
+        <v>14.76159744455077</v>
       </c>
       <c r="L7">
-        <v>8.129677455455109</v>
+        <v>6.046296269656202</v>
       </c>
       <c r="M7">
-        <v>11.81775643183387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.71202934649274</v>
+      </c>
+      <c r="N7">
+        <v>14.08281758260657</v>
+      </c>
+      <c r="O7">
+        <v>23.22069103303999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.41904887971135</v>
+        <v>20.09696518082727</v>
       </c>
       <c r="C8">
-        <v>14.17637974167104</v>
+        <v>11.36622579827011</v>
       </c>
       <c r="D8">
-        <v>3.868304720918202</v>
+        <v>4.564607664076338</v>
       </c>
       <c r="E8">
-        <v>6.038898362834203</v>
+        <v>6.684688604391395</v>
       </c>
       <c r="F8">
-        <v>39.85739962538472</v>
+        <v>30.37011151791743</v>
       </c>
       <c r="I8">
-        <v>26.67003296205434</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>6.777360690461187</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>16.09406946336913</v>
+        <v>16.28980811498648</v>
       </c>
       <c r="L8">
-        <v>8.604441658706818</v>
+        <v>6.139940295996807</v>
       </c>
       <c r="M8">
-        <v>12.96945903864452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.35065427790436</v>
+      </c>
+      <c r="N8">
+        <v>13.78062768545191</v>
+      </c>
+      <c r="O8">
+        <v>24.01125600634459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.38368172555605</v>
+        <v>23.23637665067684</v>
       </c>
       <c r="C9">
-        <v>16.63112650385728</v>
+        <v>12.9197304368407</v>
       </c>
       <c r="D9">
-        <v>3.808591817508845</v>
+        <v>4.373248820299613</v>
       </c>
       <c r="E9">
-        <v>6.269085836211165</v>
+        <v>6.592168764816398</v>
       </c>
       <c r="F9">
-        <v>44.41233124378117</v>
+        <v>33.10969855672818</v>
       </c>
       <c r="I9">
-        <v>28.90287588217228</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>6.86624527500252</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>18.78932829324508</v>
+        <v>18.98545432833588</v>
       </c>
       <c r="L9">
-        <v>9.527536078323489</v>
+        <v>6.345990264180244</v>
       </c>
       <c r="M9">
-        <v>15.0887124653863</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.57813613604089</v>
+      </c>
+      <c r="N9">
+        <v>13.21549794834293</v>
+      </c>
+      <c r="O9">
+        <v>25.67955403002731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.38460364718973</v>
+        <v>25.4592832732379</v>
       </c>
       <c r="C10">
-        <v>18.29702242317623</v>
+        <v>13.97272493644623</v>
       </c>
       <c r="D10">
-        <v>3.770365239138278</v>
+        <v>4.231681723599348</v>
       </c>
       <c r="E10">
-        <v>6.454277762624649</v>
+        <v>6.530385089643318</v>
       </c>
       <c r="F10">
-        <v>47.71009478315468</v>
+        <v>35.16047197555334</v>
       </c>
       <c r="I10">
-        <v>30.57735908377306</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6.949825548725583</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>20.61121126500997</v>
+        <v>20.7900345280709</v>
       </c>
       <c r="L10">
-        <v>10.19802621980357</v>
+        <v>6.511297332127411</v>
       </c>
       <c r="M10">
-        <v>16.52268084860896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.4583148605877</v>
+      </c>
+      <c r="N10">
+        <v>12.81634856749432</v>
+      </c>
+      <c r="O10">
+        <v>26.97557215108751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.25936008402921</v>
+        <v>26.42744146597607</v>
       </c>
       <c r="C11">
-        <v>19.02781828769269</v>
+        <v>14.43318095310713</v>
       </c>
       <c r="D11">
-        <v>3.754537684074094</v>
+        <v>4.166651584615505</v>
       </c>
       <c r="E11">
-        <v>6.542292661290841</v>
+        <v>6.503672705595322</v>
       </c>
       <c r="F11">
-        <v>49.20023594493433</v>
+        <v>36.10050231316598</v>
       </c>
       <c r="I11">
-        <v>31.34724328223232</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6.992382346815945</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>21.40846175808113</v>
+        <v>21.57461893717372</v>
       </c>
       <c r="L11">
-        <v>10.50123364825779</v>
+        <v>6.58959163373188</v>
       </c>
       <c r="M11">
-        <v>17.15041310318229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>14.92716773389169</v>
+      </c>
+      <c r="N11">
+        <v>12.63815259347632</v>
+      </c>
+      <c r="O11">
+        <v>27.58041432716264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.58578459505475</v>
+        <v>26.78803843261874</v>
       </c>
       <c r="C12">
-        <v>19.30093186801822</v>
+        <v>14.60494435719908</v>
       </c>
       <c r="D12">
-        <v>3.748803607234013</v>
+        <v>4.141896548814503</v>
       </c>
       <c r="E12">
-        <v>6.576191419266008</v>
+        <v>6.493763239951599</v>
       </c>
       <c r="F12">
-        <v>49.76326999644047</v>
+        <v>36.45746226364923</v>
       </c>
       <c r="I12">
-        <v>31.64008174035722</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7.009202002706359</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>21.70608955751923</v>
+        <v>21.86666073940226</v>
       </c>
       <c r="L12">
-        <v>10.61581146722749</v>
+        <v>6.619691796442782</v>
       </c>
       <c r="M12">
-        <v>17.38478301004822</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15.12838757918329</v>
+      </c>
+      <c r="N12">
+        <v>12.57115811119353</v>
+      </c>
+      <c r="O12">
+        <v>27.81167672035392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.51569318638314</v>
+        <v>26.71064242027485</v>
       </c>
       <c r="C13">
-        <v>19.24226854469104</v>
+        <v>14.56806649698134</v>
       </c>
       <c r="D13">
-        <v>3.750026379329024</v>
+        <v>4.14723441704807</v>
       </c>
       <c r="E13">
-        <v>6.568864896985073</v>
+        <v>6.495888161133031</v>
       </c>
       <c r="F13">
-        <v>49.64206167120877</v>
+        <v>36.38054037940717</v>
       </c>
       <c r="I13">
-        <v>31.57695319082194</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>7.005547375054001</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>21.64217566237171</v>
+        <v>21.80398679936524</v>
       </c>
       <c r="L13">
-        <v>10.59114518572347</v>
+        <v>6.613188964231578</v>
       </c>
       <c r="M13">
-        <v>17.33445233965998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15.08520359768588</v>
+      </c>
+      <c r="N13">
+        <v>12.58556499368967</v>
+      </c>
+      <c r="O13">
+        <v>27.76177068135432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.28631027244693</v>
+        <v>26.45722767851597</v>
       </c>
       <c r="C14">
-        <v>19.05035848611844</v>
+        <v>14.44736372701368</v>
       </c>
       <c r="D14">
-        <v>3.754060515454823</v>
+        <v>4.164617807641743</v>
       </c>
       <c r="E14">
-        <v>6.545069944806425</v>
+        <v>6.502853284820696</v>
       </c>
       <c r="F14">
-        <v>49.24658058025791</v>
+        <v>36.12984974483447</v>
       </c>
       <c r="I14">
-        <v>31.37130826184577</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6.993751676339698</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>21.43303181957162</v>
+        <v>21.59874589941204</v>
       </c>
       <c r="L14">
-        <v>10.51066464717243</v>
+        <v>6.592058891473185</v>
       </c>
       <c r="M14">
-        <v>17.16976055103353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14.94379101674937</v>
+      </c>
+      <c r="N14">
+        <v>12.63263119805477</v>
+      </c>
+      <c r="O14">
+        <v>27.59939564230739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.14518672400165</v>
+        <v>26.30122473494908</v>
       </c>
       <c r="C15">
-        <v>18.93234461145517</v>
+        <v>14.37309328087276</v>
       </c>
       <c r="D15">
-        <v>3.756566474305001</v>
+        <v>4.17524753726482</v>
       </c>
       <c r="E15">
-        <v>6.530569906785271</v>
+        <v>6.507146626986879</v>
       </c>
       <c r="F15">
-        <v>49.00418213469986</v>
+        <v>35.97642355061975</v>
       </c>
       <c r="I15">
-        <v>31.24551899565564</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>6.98661983312082</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>21.30437689968611</v>
+        <v>21.4723755302378</v>
       </c>
       <c r="L15">
-        <v>10.46133771569484</v>
+        <v>6.579175184862026</v>
       </c>
       <c r="M15">
-        <v>17.06845355155636</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14.85672375225123</v>
+      </c>
+      <c r="N15">
+        <v>12.6615237409923</v>
+      </c>
+      <c r="O15">
+        <v>27.50022685000575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.3267451621476</v>
+        <v>25.39515933853276</v>
       </c>
       <c r="C16">
-        <v>18.24874111842115</v>
+        <v>13.94226503992799</v>
       </c>
       <c r="D16">
-        <v>3.771433877951873</v>
+        <v>4.235915685978666</v>
       </c>
       <c r="E16">
-        <v>6.448603861498421</v>
+        <v>6.532159296499525</v>
       </c>
       <c r="F16">
-        <v>47.61252221333462</v>
+        <v>35.09917792634668</v>
       </c>
       <c r="I16">
-        <v>30.52721886977327</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>6.947139963431992</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>20.55849613133796</v>
+        <v>20.73804251017565</v>
       </c>
       <c r="L16">
-        <v>10.1781756585863</v>
+        <v>6.506243429559507</v>
       </c>
       <c r="M16">
-        <v>16.48117859206507</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.43239593105569</v>
+      </c>
+      <c r="N16">
+        <v>12.82806185680933</v>
+      </c>
+      <c r="O16">
+        <v>26.93635315831752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.81575751766875</v>
+        <v>24.82840294014611</v>
       </c>
       <c r="C17">
-        <v>17.82262750311735</v>
+        <v>13.67325607749038</v>
       </c>
       <c r="D17">
-        <v>3.78097750778429</v>
+        <v>4.272945844850238</v>
       </c>
       <c r="E17">
-        <v>6.399303800638618</v>
+        <v>6.547864261599437</v>
       </c>
       <c r="F17">
-        <v>46.75631137214856</v>
+        <v>34.56279845060754</v>
       </c>
       <c r="I17">
-        <v>30.08872436850078</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6.924117465683952</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>20.09302204255461</v>
+        <v>20.27835870169123</v>
       </c>
       <c r="L17">
-        <v>10.00400861261475</v>
+        <v>6.462299116109503</v>
       </c>
       <c r="M17">
-        <v>16.11473963542574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.20461670305977</v>
+      </c>
+      <c r="N17">
+        <v>12.93109056595419</v>
+      </c>
+      <c r="O17">
+        <v>26.59435625127221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.51849388527316</v>
+        <v>24.49835594736638</v>
       </c>
       <c r="C18">
-        <v>17.57497660448178</v>
+        <v>13.51677766354198</v>
       </c>
       <c r="D18">
-        <v>3.786611341745261</v>
+        <v>4.294187834885625</v>
       </c>
       <c r="E18">
-        <v>6.371300671279598</v>
+        <v>6.557028095408227</v>
       </c>
       <c r="F18">
-        <v>46.26287839033932</v>
+        <v>34.25495615626733</v>
       </c>
       <c r="I18">
-        <v>29.83727012139801</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>6.911299050561139</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>19.82230829890242</v>
+        <v>20.01053100135288</v>
       </c>
       <c r="L18">
-        <v>9.903660028983415</v>
+        <v>6.437314352772836</v>
       </c>
       <c r="M18">
-        <v>15.90164623709626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.0730800019953</v>
+      </c>
+      <c r="N18">
+        <v>12.99066784364915</v>
+      </c>
+      <c r="O18">
+        <v>26.39908348451654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.41726110832059</v>
+        <v>24.38590501213092</v>
       </c>
       <c r="C19">
-        <v>17.49067878946944</v>
+        <v>13.4634941288692</v>
       </c>
       <c r="D19">
-        <v>3.788542730745682</v>
+        <v>4.30137136924025</v>
       </c>
       <c r="E19">
-        <v>6.36187916587848</v>
+        <v>6.560153116195604</v>
       </c>
       <c r="F19">
-        <v>46.09564129726868</v>
+        <v>34.15084291465519</v>
       </c>
       <c r="I19">
-        <v>29.75225904637466</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>6.90703019320153</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>19.73012908839687</v>
+        <v>19.91925540110216</v>
       </c>
       <c r="L19">
-        <v>9.869653979035602</v>
+        <v>6.428904720589674</v>
       </c>
       <c r="M19">
-        <v>15.82909113210642</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14.02845569912848</v>
+      </c>
+      <c r="N19">
+        <v>13.01089440454025</v>
+      </c>
+      <c r="O19">
+        <v>26.33321363170271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.87049858257412</v>
+        <v>24.88915455983911</v>
       </c>
       <c r="C20">
-        <v>17.86825133524927</v>
+        <v>13.70207338393551</v>
       </c>
       <c r="D20">
-        <v>3.779946374491514</v>
+        <v>4.269010065004099</v>
       </c>
       <c r="E20">
-        <v>6.404515165021603</v>
+        <v>6.546178871773209</v>
       </c>
       <c r="F20">
-        <v>46.8475551825922</v>
+        <v>34.61982815190911</v>
       </c>
       <c r="I20">
-        <v>30.13532387151601</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>6.926524057189313</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>20.1428797364599</v>
+        <v>20.32764667011311</v>
       </c>
       <c r="L20">
-        <v>10.02256677140229</v>
+        <v>6.466946919777087</v>
       </c>
       <c r="M20">
-        <v>16.15398721629694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.22891884119191</v>
+      </c>
+      <c r="N20">
+        <v>12.92009010941418</v>
+      </c>
+      <c r="O20">
+        <v>26.63061382343099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.35381424241848</v>
+        <v>26.53182376415463</v>
       </c>
       <c r="C21">
-        <v>19.10682318047234</v>
+        <v>14.4828870444572</v>
       </c>
       <c r="D21">
-        <v>3.752868240297037</v>
+        <v>4.159515732079622</v>
       </c>
       <c r="E21">
-        <v>6.552043400679759</v>
+        <v>6.500801820279396</v>
       </c>
       <c r="F21">
-        <v>49.36277470634437</v>
+        <v>36.2034567408996</v>
       </c>
       <c r="I21">
-        <v>31.43167454066078</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>6.99719680133909</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>21.49457618523866</v>
+        <v>21.65916619539959</v>
       </c>
       <c r="L21">
-        <v>10.53430997093083</v>
+        <v>6.598252980283494</v>
       </c>
       <c r="M21">
-        <v>17.21822343799179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14.98542046927255</v>
+      </c>
+      <c r="N21">
+        <v>12.61879355121666</v>
+      </c>
+      <c r="O21">
+        <v>27.64702847599944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.29526485409131</v>
+        <v>27.57038697895653</v>
       </c>
       <c r="C22">
-        <v>19.89533176743956</v>
+        <v>14.97807365815441</v>
       </c>
       <c r="D22">
-        <v>3.736704533744094</v>
+        <v>4.087178428298688</v>
       </c>
       <c r="E22">
-        <v>6.65179751378475</v>
+        <v>6.472349048931249</v>
       </c>
       <c r="F22">
-        <v>50.99951484388568</v>
+        <v>37.2442529165055</v>
       </c>
       <c r="I22">
-        <v>32.28659980180547</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>7.047519217222516</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>22.35322288258188</v>
+        <v>22.49996313058348</v>
       </c>
       <c r="L22">
-        <v>10.93396068274953</v>
+        <v>6.686707306441546</v>
       </c>
       <c r="M22">
-        <v>17.89441325935684</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15.56477860530451</v>
+      </c>
+      <c r="N22">
+        <v>12.42470588420785</v>
+      </c>
+      <c r="O22">
+        <v>28.32429939080265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.79525578760958</v>
+        <v>27.01922910224825</v>
       </c>
       <c r="C23">
-        <v>19.47631247034358</v>
+        <v>14.71514058942687</v>
       </c>
       <c r="D23">
-        <v>3.745177857913732</v>
+        <v>4.125871301594598</v>
       </c>
       <c r="E23">
-        <v>6.598241139169063</v>
+        <v>6.487422547724697</v>
       </c>
       <c r="F23">
-        <v>50.12650741389303</v>
+        <v>36.68822477647618</v>
       </c>
       <c r="I23">
-        <v>31.82954736868303</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>7.020264254408283</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>21.89711822345132</v>
+        <v>22.05384994546981</v>
       </c>
       <c r="L23">
-        <v>10.70550929843074</v>
+        <v>6.639253382414773</v>
       </c>
       <c r="M23">
-        <v>17.53521673152472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.25736897562108</v>
+      </c>
+      <c r="N23">
+        <v>12.52803454985408</v>
+      </c>
+      <c r="O23">
+        <v>27.96162243437232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.84576103806961</v>
+        <v>24.86170188188618</v>
       </c>
       <c r="C24">
-        <v>17.84763314446797</v>
+        <v>13.6890507583839</v>
       </c>
       <c r="D24">
-        <v>3.780412094311012</v>
+        <v>4.270789575029754</v>
       </c>
       <c r="E24">
-        <v>6.402158049727492</v>
+        <v>6.546940416922574</v>
       </c>
       <c r="F24">
-        <v>46.80630756270901</v>
+        <v>34.5940433716297</v>
       </c>
       <c r="I24">
-        <v>30.11425424503452</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>6.925434740536493</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>20.12034876834009</v>
+        <v>20.30537464701524</v>
       </c>
       <c r="L24">
-        <v>10.01417730675189</v>
+        <v>6.464844777922122</v>
       </c>
       <c r="M24">
-        <v>16.13625094588488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.21793365790126</v>
+      </c>
+      <c r="N24">
+        <v>12.92506234197418</v>
+      </c>
+      <c r="O24">
+        <v>26.61421758460895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.6137106033161</v>
+        <v>22.37860042109391</v>
       </c>
       <c r="C25">
-        <v>15.99209147555835</v>
+        <v>12.51513953197699</v>
       </c>
       <c r="D25">
-        <v>3.823854074572001</v>
+        <v>4.425058566977748</v>
       </c>
       <c r="E25">
-        <v>6.20407378121288</v>
+        <v>6.616125194549452</v>
       </c>
       <c r="F25">
-        <v>43.18843614975414</v>
+        <v>32.36133112537387</v>
       </c>
       <c r="I25">
-        <v>28.2929423636626</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>6.839168579253374</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>18.08886695760813</v>
+        <v>18.28768800043568</v>
       </c>
       <c r="L25">
-        <v>9.279040841454893</v>
+        <v>6.287822945592578</v>
       </c>
       <c r="M25">
-        <v>14.53765571585994</v>
+        <v>13.2494889599497</v>
+      </c>
+      <c r="N25">
+        <v>13.36551913522031</v>
+      </c>
+      <c r="O25">
+        <v>25.21581081898549</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.53448296311229</v>
+        <v>12.05675308284965</v>
       </c>
       <c r="C2">
-        <v>11.59123123049537</v>
+        <v>6.268975176313102</v>
       </c>
       <c r="D2">
-        <v>4.538145498033596</v>
+        <v>10.82938286242665</v>
       </c>
       <c r="E2">
-        <v>6.671203890121326</v>
+        <v>14.42889633780778</v>
       </c>
       <c r="F2">
-        <v>30.74355535929239</v>
+        <v>64.4025457043127</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.68322592639878</v>
+        <v>10.61227069119695</v>
       </c>
       <c r="L2">
-        <v>6.166820623421787</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.52230042723839</v>
+        <v>14.1498921809021</v>
       </c>
       <c r="N2">
-        <v>13.70063762769967</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>24.2335257174669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.24621931530192</v>
+        <v>11.15710074065228</v>
       </c>
       <c r="C3">
-        <v>10.92748012162756</v>
+        <v>5.822900740557273</v>
       </c>
       <c r="D3">
-        <v>4.615017533727402</v>
+        <v>10.38332715384673</v>
       </c>
       <c r="E3">
-        <v>6.711057938027327</v>
+        <v>13.51023002327166</v>
       </c>
       <c r="F3">
-        <v>29.66674197650061</v>
+        <v>60.83062059378882</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,19 +483,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.51917566758706</v>
+        <v>9.857434621202843</v>
       </c>
       <c r="L3">
-        <v>6.090555477413289</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.02279619313703</v>
+        <v>13.15235054085789</v>
       </c>
       <c r="N3">
-        <v>13.9347312575767</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>23.59790125749677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.42350666736027</v>
+        <v>10.57967906708216</v>
       </c>
       <c r="C4">
-        <v>10.50139000675337</v>
+        <v>5.538905971891574</v>
       </c>
       <c r="D4">
-        <v>4.662491174827103</v>
+        <v>10.10332311270796</v>
       </c>
       <c r="E4">
-        <v>6.736760970963616</v>
+        <v>12.92855671217678</v>
       </c>
       <c r="F4">
-        <v>29.0166503477102</v>
+        <v>58.56839635428361</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,19 +524,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.76583020714852</v>
+        <v>9.373264386610128</v>
       </c>
       <c r="L4">
-        <v>6.046531596504114</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.71373220281506</v>
+        <v>12.51181937358352</v>
       </c>
       <c r="N4">
-        <v>14.08199972727054</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>23.22271681289476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.08045859758989</v>
+        <v>10.33794374422729</v>
       </c>
       <c r="C5">
-        <v>10.32311334901851</v>
+        <v>5.420535960203916</v>
       </c>
       <c r="D5">
-        <v>4.681927565583704</v>
+        <v>9.987697729106298</v>
       </c>
       <c r="E5">
-        <v>6.747543330260456</v>
+        <v>12.68716059634782</v>
       </c>
       <c r="F5">
-        <v>28.75476236599507</v>
+        <v>57.62949425260173</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.44901623327211</v>
+        <v>9.170625074986384</v>
       </c>
       <c r="L5">
-        <v>6.029292279558916</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.5873545524221</v>
+        <v>12.2435877529077</v>
       </c>
       <c r="N5">
-        <v>14.14291524250815</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>23.07366296752662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.02303229003951</v>
+        <v>10.29741163393825</v>
       </c>
       <c r="C6">
-        <v>10.29323132050235</v>
+        <v>5.400718571131166</v>
       </c>
       <c r="D6">
-        <v>4.685161031493549</v>
+        <v>9.96840716700453</v>
       </c>
       <c r="E6">
-        <v>6.749352300186532</v>
+        <v>12.64681672221719</v>
       </c>
       <c r="F6">
-        <v>28.71146651607089</v>
+        <v>57.47257513362746</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.39581330772774</v>
+        <v>9.136651069528623</v>
       </c>
       <c r="L6">
-        <v>6.0264718928299</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.56634873493419</v>
+        <v>12.19860825076956</v>
       </c>
       <c r="N6">
-        <v>14.15308513691003</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>23.04914555944075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.41891142866582</v>
+        <v>10.57644515012643</v>
       </c>
       <c r="C7">
-        <v>10.49900445608122</v>
+        <v>5.5373204046799</v>
       </c>
       <c r="D7">
-        <v>4.662752906933281</v>
+        <v>10.10176987306569</v>
       </c>
       <c r="E7">
-        <v>6.736905139950185</v>
+        <v>12.92531868085472</v>
       </c>
       <c r="F7">
-        <v>29.01310583217514</v>
+        <v>58.55580236245274</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.76159744455077</v>
+        <v>9.370553292691762</v>
       </c>
       <c r="L7">
-        <v>6.046296269656202</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.71202934649274</v>
+        <v>12.5082313014593</v>
       </c>
       <c r="N7">
-        <v>14.08281758260657</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>23.22069103303999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.09696518082727</v>
+        <v>11.75166087263613</v>
       </c>
       <c r="C8">
-        <v>11.36622579827011</v>
+        <v>6.117202402752806</v>
       </c>
       <c r="D8">
-        <v>4.564607664076338</v>
+        <v>10.6768599791601</v>
       </c>
       <c r="E8">
-        <v>6.684688604391395</v>
+        <v>14.11581884702058</v>
       </c>
       <c r="F8">
-        <v>30.37011151791743</v>
+        <v>63.18542273557456</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.28980811498648</v>
+        <v>10.35621616443972</v>
       </c>
       <c r="L8">
-        <v>6.139940295996807</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.35065427790436</v>
+        <v>13.81165748401395</v>
       </c>
       <c r="N8">
-        <v>13.78062768545191</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>24.01125600634459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.23637665067684</v>
+        <v>13.86469263026994</v>
       </c>
       <c r="C9">
-        <v>12.9197304368407</v>
+        <v>7.179287508463905</v>
       </c>
       <c r="D9">
-        <v>4.373248820299613</v>
+        <v>11.7561184307487</v>
       </c>
       <c r="E9">
-        <v>6.592168764816398</v>
+        <v>16.37170422729793</v>
       </c>
       <c r="F9">
-        <v>33.10969855672818</v>
+        <v>71.71086892804016</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.98545432833588</v>
+        <v>12.13148233985243</v>
       </c>
       <c r="L9">
-        <v>6.345990264180244</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.57813613604089</v>
+        <v>16.15333535759198</v>
       </c>
       <c r="N9">
-        <v>13.21549794834293</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>25.67955403002731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.4592832732379</v>
+        <v>15.31161208198183</v>
       </c>
       <c r="C10">
-        <v>13.97272493644623</v>
+        <v>7.92201757171004</v>
       </c>
       <c r="D10">
-        <v>4.231681723599348</v>
+        <v>12.52107685083304</v>
       </c>
       <c r="E10">
-        <v>6.530385089643318</v>
+        <v>18.04366053478418</v>
       </c>
       <c r="F10">
-        <v>35.16047197555334</v>
+        <v>77.64328012000361</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.7900345280709</v>
+        <v>13.35008629686788</v>
       </c>
       <c r="L10">
-        <v>6.511297332127411</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.4583148605877</v>
+        <v>17.75595861931623</v>
       </c>
       <c r="N10">
-        <v>12.81634856749432</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>26.97557215108751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.42744146597607</v>
+        <v>15.94990190038905</v>
       </c>
       <c r="C11">
-        <v>14.43318095310713</v>
+        <v>8.253915042976464</v>
       </c>
       <c r="D11">
-        <v>4.166651584615505</v>
+        <v>12.86378223606966</v>
       </c>
       <c r="E11">
-        <v>6.503672705595322</v>
+        <v>18.78023803743617</v>
       </c>
       <c r="F11">
-        <v>36.10050231316598</v>
+        <v>80.27514303889372</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.57461893717372</v>
+        <v>13.88856431281641</v>
       </c>
       <c r="L11">
-        <v>6.58959163373188</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>14.92716773389169</v>
+        <v>18.46282009508345</v>
       </c>
       <c r="N11">
-        <v>12.63815259347632</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>27.58041432716264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.78803843261874</v>
+        <v>16.18903022860689</v>
       </c>
       <c r="C12">
-        <v>14.60494435719908</v>
+        <v>8.37895116951076</v>
       </c>
       <c r="D12">
-        <v>4.141896548814503</v>
+        <v>12.99289296078579</v>
       </c>
       <c r="E12">
-        <v>6.493763239951599</v>
+        <v>19.05603851624929</v>
       </c>
       <c r="F12">
-        <v>36.45746226364923</v>
+        <v>81.26280623863869</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.86666073940226</v>
+        <v>14.09045329848371</v>
       </c>
       <c r="L12">
-        <v>6.619691796442782</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>15.12838757918329</v>
+        <v>18.72762934138921</v>
       </c>
       <c r="N12">
-        <v>12.57115811119353</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>27.81167672035392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.71064242027485</v>
+        <v>16.1376393081992</v>
       </c>
       <c r="C13">
-        <v>14.56806649698134</v>
+        <v>8.352047396739708</v>
       </c>
       <c r="D13">
-        <v>4.14723441704807</v>
+        <v>12.96511439674881</v>
       </c>
       <c r="E13">
-        <v>6.495888161133031</v>
+        <v>18.99677322718268</v>
       </c>
       <c r="F13">
-        <v>36.38054037940717</v>
+        <v>81.05048165853506</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.80398679936524</v>
+        <v>14.04705819999927</v>
       </c>
       <c r="L13">
-        <v>6.613188964231578</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>15.08520359768588</v>
+        <v>18.67071959279465</v>
       </c>
       <c r="N13">
-        <v>12.58556499368967</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>27.76177068135432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.45722767851597</v>
+        <v>15.96962500934349</v>
       </c>
       <c r="C14">
-        <v>14.44736372701368</v>
+        <v>8.26421345434248</v>
       </c>
       <c r="D14">
-        <v>4.164617807641743</v>
+        <v>12.87441692629863</v>
       </c>
       <c r="E14">
-        <v>6.502853284820696</v>
+        <v>18.80298890291532</v>
       </c>
       <c r="F14">
-        <v>36.12984974483447</v>
+        <v>80.35657397538768</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.59874589941204</v>
+        <v>13.90521271019801</v>
       </c>
       <c r="L14">
-        <v>6.592058891473185</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>14.94379101674937</v>
+        <v>18.48466146830184</v>
       </c>
       <c r="N14">
-        <v>12.63263119805477</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>27.59939564230739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.30122473494908</v>
+        <v>15.86638487081474</v>
       </c>
       <c r="C15">
-        <v>14.37309328087276</v>
+        <v>8.210335348908524</v>
       </c>
       <c r="D15">
-        <v>4.17524753726482</v>
+        <v>12.81877887030458</v>
       </c>
       <c r="E15">
-        <v>6.507146626986879</v>
+        <v>18.68389390207457</v>
       </c>
       <c r="F15">
-        <v>35.97642355061975</v>
+        <v>79.93039035259035</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.4723755302378</v>
+        <v>13.81807347128343</v>
       </c>
       <c r="L15">
-        <v>6.579175184862026</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>14.85672375225123</v>
+        <v>18.37033302555371</v>
       </c>
       <c r="N15">
-        <v>12.6615237409923</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>27.50022685000575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.39515933853276</v>
+        <v>15.26952102509989</v>
       </c>
       <c r="C16">
-        <v>13.94226503992799</v>
+        <v>7.900224538035205</v>
       </c>
       <c r="D16">
-        <v>4.235915685978666</v>
+        <v>12.49858150407842</v>
       </c>
       <c r="E16">
-        <v>6.532159296499525</v>
+        <v>17.99506725449939</v>
       </c>
       <c r="F16">
-        <v>35.09917792634668</v>
+        <v>77.46998745777162</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.73804251017565</v>
+        <v>13.31459761486667</v>
       </c>
       <c r="L16">
-        <v>6.506243429559507</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.43239593105569</v>
+        <v>17.70934400339151</v>
       </c>
       <c r="N16">
-        <v>12.82806185680933</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>26.93635315831752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.82840294014611</v>
+        <v>14.89845318846685</v>
       </c>
       <c r="C17">
-        <v>13.67325607749038</v>
+        <v>7.708592991581355</v>
       </c>
       <c r="D17">
-        <v>4.272945844850238</v>
+        <v>12.30085775042083</v>
       </c>
       <c r="E17">
-        <v>6.547864261599437</v>
+        <v>17.5665639596276</v>
       </c>
       <c r="F17">
-        <v>34.56279845060754</v>
+        <v>75.94389023421877</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.27835870169123</v>
+        <v>13.00184096490521</v>
       </c>
       <c r="L17">
-        <v>6.462299116109503</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.20461670305977</v>
+        <v>17.29838497616562</v>
       </c>
       <c r="N17">
-        <v>12.93109056595419</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>26.59435625127221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.49835594736638</v>
+        <v>14.68313030737569</v>
       </c>
       <c r="C18">
-        <v>13.51677766354198</v>
+        <v>7.59779478454816</v>
       </c>
       <c r="D18">
-        <v>4.294187834885625</v>
+        <v>12.18662824371213</v>
       </c>
       <c r="E18">
-        <v>6.557028095408227</v>
+        <v>17.31781872410559</v>
       </c>
       <c r="F18">
-        <v>34.25495615626733</v>
+        <v>75.05977970193236</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.01053100135288</v>
+        <v>12.82044008926144</v>
       </c>
       <c r="L18">
-        <v>6.437314352772836</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.0730800019953</v>
+        <v>17.05990248110765</v>
       </c>
       <c r="N18">
-        <v>12.99066784364915</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>26.39908348451654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.38590501213092</v>
+        <v>14.60989223605021</v>
       </c>
       <c r="C19">
-        <v>13.4634941288692</v>
+        <v>7.560175378458942</v>
       </c>
       <c r="D19">
-        <v>4.30137136924025</v>
+        <v>12.14786308651884</v>
       </c>
       <c r="E19">
-        <v>6.560153116195604</v>
+        <v>17.23319683669137</v>
       </c>
       <c r="F19">
-        <v>34.15084291465519</v>
+        <v>74.75932986280357</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.91925540110216</v>
+        <v>12.75875389970304</v>
       </c>
       <c r="L19">
-        <v>6.428904720589674</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.02845569912848</v>
+        <v>16.97878489257684</v>
       </c>
       <c r="N19">
-        <v>13.01089440454025</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>26.33321363170271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.88915455983911</v>
+        <v>14.93814812062606</v>
       </c>
       <c r="C20">
-        <v>13.70207338393551</v>
+        <v>7.729050755150939</v>
       </c>
       <c r="D20">
-        <v>4.269010065004099</v>
+        <v>12.32195734881269</v>
       </c>
       <c r="E20">
-        <v>6.546178871773209</v>
+        <v>17.61241277858406</v>
       </c>
       <c r="F20">
-        <v>34.61982815190911</v>
+        <v>76.10699801152526</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.32764667011311</v>
+        <v>13.03528910686767</v>
       </c>
       <c r="L20">
-        <v>6.466946919777087</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.22891884119191</v>
+        <v>17.34234840696952</v>
       </c>
       <c r="N20">
-        <v>12.92009010941418</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>26.63061382343099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.53182376415463</v>
+        <v>16.0190423573812</v>
       </c>
       <c r="C21">
-        <v>14.4828870444572</v>
+        <v>8.290028089621945</v>
       </c>
       <c r="D21">
-        <v>4.159515732079622</v>
+        <v>12.90107410948464</v>
       </c>
       <c r="E21">
-        <v>6.500801820279396</v>
+        <v>18.85999003487876</v>
       </c>
       <c r="F21">
-        <v>36.2034567408996</v>
+        <v>80.56062869078909</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.65916619539959</v>
+        <v>13.94692874326084</v>
       </c>
       <c r="L21">
-        <v>6.598252980283494</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>14.98542046927255</v>
+        <v>18.53938613656419</v>
       </c>
       <c r="N21">
-        <v>12.61879355121666</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>27.64702847599944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.57038697895653</v>
+        <v>16.71060697438372</v>
       </c>
       <c r="C22">
-        <v>14.97807365815441</v>
+        <v>8.653016455088006</v>
       </c>
       <c r="D22">
-        <v>4.087178428298688</v>
+        <v>13.27575268002646</v>
       </c>
       <c r="E22">
-        <v>6.472349048931249</v>
+        <v>19.65732527254852</v>
       </c>
       <c r="F22">
-        <v>37.2442529165055</v>
+        <v>83.4195198034072</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.49996313058348</v>
+        <v>14.53110881234427</v>
       </c>
       <c r="L22">
-        <v>6.686707306441546</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>15.56477860530451</v>
+        <v>19.3052149154451</v>
       </c>
       <c r="N22">
-        <v>12.42470588420785</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>28.32429939080265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.01922910224825</v>
+        <v>16.34275961523903</v>
       </c>
       <c r="C23">
-        <v>14.71514058942687</v>
+        <v>8.459536706689851</v>
       </c>
       <c r="D23">
-        <v>4.125871301594598</v>
+        <v>13.07608933572052</v>
       </c>
       <c r="E23">
-        <v>6.487422547724697</v>
+        <v>19.23330092677772</v>
       </c>
       <c r="F23">
-        <v>36.68822477647618</v>
+        <v>81.8981505130412</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.05384994546981</v>
+        <v>14.22028821238626</v>
       </c>
       <c r="L23">
-        <v>6.639253382414773</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15.25736897562108</v>
+        <v>18.89786705851031</v>
       </c>
       <c r="N23">
-        <v>12.52803454985408</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>27.96162243437232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.86170188188618</v>
+        <v>14.9202082644885</v>
       </c>
       <c r="C24">
-        <v>13.6890507583839</v>
+        <v>7.719803767810854</v>
       </c>
       <c r="D24">
-        <v>4.270789575029754</v>
+        <v>12.31241995734658</v>
       </c>
       <c r="E24">
-        <v>6.546940416922574</v>
+        <v>17.59169200505682</v>
       </c>
       <c r="F24">
-        <v>34.5940433716297</v>
+        <v>76.03327801527502</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.30537464701524</v>
+        <v>13.0201721826473</v>
       </c>
       <c r="L24">
-        <v>6.464844777922122</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.21793365790126</v>
+        <v>17.32247946824122</v>
       </c>
       <c r="N24">
-        <v>12.92506234197418</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>26.61421758460895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.37860042109391</v>
+        <v>13.3124947198666</v>
       </c>
       <c r="C25">
-        <v>12.51513953197699</v>
+        <v>6.899222997355392</v>
       </c>
       <c r="D25">
-        <v>4.425058566977748</v>
+        <v>11.46925126205127</v>
       </c>
       <c r="E25">
-        <v>6.616125194549452</v>
+        <v>15.7327807419284</v>
       </c>
       <c r="F25">
-        <v>32.36133112537387</v>
+        <v>69.46376474828949</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.28768800043568</v>
+        <v>11.66710056633057</v>
       </c>
       <c r="L25">
-        <v>6.287822945592578</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.2494889599497</v>
+        <v>15.54156414622913</v>
       </c>
       <c r="N25">
-        <v>13.36551913522031</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>25.21581081898549</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.05675308284965</v>
+        <v>11.44237473425257</v>
       </c>
       <c r="C2">
-        <v>6.268975176313102</v>
+        <v>3.704411347280387</v>
       </c>
       <c r="D2">
-        <v>10.82938286242665</v>
+        <v>9.552705627693321</v>
       </c>
       <c r="E2">
-        <v>14.42889633780778</v>
+        <v>11.69700795633191</v>
       </c>
       <c r="F2">
-        <v>64.4025457043127</v>
+        <v>50.68607110340694</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.61227069119695</v>
+        <v>10.97568907855668</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.1498921809021</v>
+        <v>14.84782912126718</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.15710074065228</v>
+        <v>11.34362332433227</v>
       </c>
       <c r="C3">
-        <v>5.822900740557273</v>
+        <v>3.649666658397357</v>
       </c>
       <c r="D3">
-        <v>10.38332715384673</v>
+        <v>9.388250751436674</v>
       </c>
       <c r="E3">
-        <v>13.51023002327166</v>
+        <v>11.4271104078</v>
       </c>
       <c r="F3">
-        <v>60.83062059378882</v>
+        <v>49.37148576754086</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,13 +483,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.857434621202843</v>
+        <v>10.94998322847086</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.15235054085789</v>
+        <v>14.75478778018307</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.57967906708216</v>
+        <v>11.28818494904763</v>
       </c>
       <c r="C4">
-        <v>5.538905971891574</v>
+        <v>3.619505316429356</v>
       </c>
       <c r="D4">
-        <v>10.10332311270796</v>
+        <v>9.284724299055879</v>
       </c>
       <c r="E4">
-        <v>12.92855671217678</v>
+        <v>11.26136667513819</v>
       </c>
       <c r="F4">
-        <v>58.56839635428361</v>
+        <v>48.54807847348761</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,13 +524,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.373264386610128</v>
+        <v>10.93930522970984</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.51181937358352</v>
+        <v>14.70243272264884</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.33794374422729</v>
+        <v>11.26692793595285</v>
       </c>
       <c r="C5">
-        <v>5.420535960203916</v>
+        <v>3.608107096826746</v>
       </c>
       <c r="D5">
-        <v>9.987697729106298</v>
+        <v>9.241918013633013</v>
       </c>
       <c r="E5">
-        <v>12.68716059634782</v>
+        <v>11.1939170698023</v>
       </c>
       <c r="F5">
-        <v>57.62949425260173</v>
+        <v>48.20882126946</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,13 +565,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.170625074986384</v>
+        <v>10.93623994860149</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.2435877529077</v>
+        <v>14.68231567461216</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.29741163393825</v>
+        <v>11.26347958681193</v>
       </c>
       <c r="C6">
-        <v>5.400718571131166</v>
+        <v>3.60626899660653</v>
       </c>
       <c r="D6">
-        <v>9.96840716700453</v>
+        <v>9.234773397616019</v>
       </c>
       <c r="E6">
-        <v>12.64681672221719</v>
+        <v>11.18272562102473</v>
       </c>
       <c r="F6">
-        <v>57.47257513362746</v>
+        <v>48.15227499772809</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.136651069528623</v>
+        <v>10.93580866534142</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.19860825076956</v>
+        <v>14.6790493008559</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.57644515012643</v>
+        <v>11.28789283126425</v>
       </c>
       <c r="C7">
-        <v>5.5373204046799</v>
+        <v>3.61934795157548</v>
       </c>
       <c r="D7">
-        <v>10.10176987306569</v>
+        <v>9.284149471485133</v>
       </c>
       <c r="E7">
-        <v>12.92531868085472</v>
+        <v>11.26045652012322</v>
       </c>
       <c r="F7">
-        <v>58.55580236245274</v>
+        <v>48.54351765333974</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,13 +647,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.370553292691762</v>
+        <v>10.93925868147933</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.5082313014593</v>
+        <v>14.7021564632805</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.75166087263613</v>
+        <v>11.40726485426869</v>
       </c>
       <c r="C8">
-        <v>6.117202402752806</v>
+        <v>3.684834907120255</v>
       </c>
       <c r="D8">
-        <v>10.6768599791601</v>
+        <v>9.496544426934099</v>
       </c>
       <c r="E8">
-        <v>14.11581884702058</v>
+        <v>11.60401101386664</v>
       </c>
       <c r="F8">
-        <v>63.18542273557456</v>
+        <v>50.23639124676016</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.35621616443972</v>
+        <v>10.96576801927881</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.81165748401395</v>
+        <v>14.81476934179019</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.86469263026994</v>
+        <v>11.68117845573765</v>
       </c>
       <c r="C9">
-        <v>7.179287508463905</v>
+        <v>3.839373611735051</v>
       </c>
       <c r="D9">
-        <v>11.7561184307487</v>
+        <v>9.891854797306292</v>
       </c>
       <c r="E9">
-        <v>16.37170422729793</v>
+        <v>12.27332883099231</v>
       </c>
       <c r="F9">
-        <v>71.71086892804016</v>
+        <v>53.41194598369502</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,13 +729,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.13148233985243</v>
+        <v>11.05806812180469</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.15333535759198</v>
+        <v>15.0725769380567</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.31161208198183</v>
+        <v>11.9046271383813</v>
       </c>
       <c r="C10">
-        <v>7.92201757171004</v>
+        <v>3.96692395228656</v>
       </c>
       <c r="D10">
-        <v>12.52107685083304</v>
+        <v>10.16815792730414</v>
       </c>
       <c r="E10">
-        <v>18.04366053478418</v>
+        <v>12.75705989669339</v>
       </c>
       <c r="F10">
-        <v>77.64328012000361</v>
+        <v>55.63838383000779</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,13 +770,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.35008629686788</v>
+        <v>11.15006230053062</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.75595861931623</v>
+        <v>15.28318677714536</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.94990190038905</v>
+        <v>12.01061195839896</v>
       </c>
       <c r="C11">
-        <v>8.253915042976464</v>
+        <v>4.027546042171851</v>
       </c>
       <c r="D11">
-        <v>12.86378223606966</v>
+        <v>10.2905510022568</v>
       </c>
       <c r="E11">
-        <v>18.78023803743617</v>
+        <v>12.97434257127292</v>
       </c>
       <c r="F11">
-        <v>80.27514303889372</v>
+        <v>56.62460640975666</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,13 +811,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.88856431281641</v>
+        <v>11.19703857565526</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.46282009508345</v>
+        <v>15.38327779852169</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.18903022860689</v>
+        <v>12.05132598050291</v>
       </c>
       <c r="C12">
-        <v>8.37895116951076</v>
+        <v>4.050837442484678</v>
       </c>
       <c r="D12">
-        <v>12.99289296078579</v>
+        <v>10.3364052369354</v>
       </c>
       <c r="E12">
-        <v>19.05603851624929</v>
+        <v>13.05614419235969</v>
       </c>
       <c r="F12">
-        <v>81.26280623863869</v>
+        <v>56.99397989460226</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.09045329848371</v>
+        <v>11.21555132962569</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.72762934138921</v>
+        <v>15.42176612932296</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.1376393081992</v>
+        <v>12.04253240573798</v>
       </c>
       <c r="C13">
-        <v>8.352047396739708</v>
+        <v>4.045806931880029</v>
       </c>
       <c r="D13">
-        <v>12.96511439674881</v>
+        <v>10.32655194089188</v>
       </c>
       <c r="E13">
-        <v>18.99677322718268</v>
+        <v>13.03854925731611</v>
       </c>
       <c r="F13">
-        <v>81.05048165853506</v>
+        <v>56.91461444482972</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,13 +893,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.04705819999927</v>
+        <v>11.21153231607284</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.67071959279465</v>
+        <v>15.41345140434989</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.96962500934349</v>
+        <v>12.01395015858823</v>
       </c>
       <c r="C14">
-        <v>8.26421345434248</v>
+        <v>4.029455744211914</v>
       </c>
       <c r="D14">
-        <v>12.87441692629863</v>
+        <v>10.29433345058974</v>
       </c>
       <c r="E14">
-        <v>18.80298890291532</v>
+        <v>12.9810824728142</v>
       </c>
       <c r="F14">
-        <v>80.35657397538768</v>
+        <v>56.65507833461289</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.90521271019801</v>
+        <v>11.19854720726178</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.48466146830184</v>
+        <v>15.38643268753898</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.86638487081474</v>
+        <v>11.9965169053719</v>
       </c>
       <c r="C15">
-        <v>8.210335348908524</v>
+        <v>4.019482667857266</v>
       </c>
       <c r="D15">
-        <v>12.81877887030458</v>
+        <v>10.2745338982725</v>
       </c>
       <c r="E15">
-        <v>18.68389390207457</v>
+        <v>12.94581778671373</v>
       </c>
       <c r="F15">
-        <v>79.93039035259035</v>
+        <v>56.49556523547277</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.81807347128343</v>
+        <v>11.19068729102549</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.37033302555371</v>
+        <v>15.3699583524695</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.26952102509989</v>
+        <v>11.89778433558923</v>
       </c>
       <c r="C16">
-        <v>7.900224538035205</v>
+        <v>3.963011156249233</v>
       </c>
       <c r="D16">
-        <v>12.49858150407842</v>
+        <v>10.16009122350831</v>
       </c>
       <c r="E16">
-        <v>17.99506725449939</v>
+        <v>12.74279724088585</v>
       </c>
       <c r="F16">
-        <v>77.46998745777162</v>
+        <v>55.57337365974681</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,13 +1016,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.31459761486667</v>
+        <v>11.14709435834292</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.70934400339151</v>
+        <v>15.27672925963607</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.89845318846685</v>
+        <v>11.83829512793001</v>
       </c>
       <c r="C17">
-        <v>7.708592991581355</v>
+        <v>3.929005946691698</v>
       </c>
       <c r="D17">
-        <v>12.30085775042083</v>
+        <v>10.08902560570922</v>
       </c>
       <c r="E17">
-        <v>17.5665639596276</v>
+        <v>12.61748251575429</v>
       </c>
       <c r="F17">
-        <v>75.94389023421877</v>
+        <v>55.00063251619699</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.00184096490521</v>
+        <v>11.12165577830785</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.29838497616562</v>
+        <v>15.22061246531633</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.68313030737569</v>
+        <v>11.80448942701469</v>
       </c>
       <c r="C18">
-        <v>7.59779478454816</v>
+        <v>3.909694000716925</v>
       </c>
       <c r="D18">
-        <v>12.18662824371213</v>
+        <v>10.04784112990733</v>
       </c>
       <c r="E18">
-        <v>17.31781872410559</v>
+        <v>12.5451486308217</v>
       </c>
       <c r="F18">
-        <v>75.05977970193236</v>
+        <v>54.66871791209221</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.82044008926144</v>
+        <v>11.10750774178572</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.05990248110765</v>
+        <v>15.18874063831639</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.60989223605021</v>
+        <v>11.79311528715967</v>
       </c>
       <c r="C19">
-        <v>7.560175378458942</v>
+        <v>3.903198894301439</v>
       </c>
       <c r="D19">
-        <v>12.14786308651884</v>
+        <v>10.03384423031111</v>
       </c>
       <c r="E19">
-        <v>17.23319683669137</v>
+        <v>12.52061616459458</v>
       </c>
       <c r="F19">
-        <v>74.75932986280357</v>
+        <v>54.55591824287033</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.75875389970304</v>
+        <v>11.10280089442724</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.97878489257684</v>
+        <v>15.17801984721596</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.93814812062606</v>
+        <v>11.84458564063019</v>
       </c>
       <c r="C20">
-        <v>7.729050755150939</v>
+        <v>3.932600579904408</v>
       </c>
       <c r="D20">
-        <v>12.32195734881269</v>
+        <v>10.09662282638468</v>
       </c>
       <c r="E20">
-        <v>17.61241277858406</v>
+        <v>12.63084959505192</v>
       </c>
       <c r="F20">
-        <v>76.10699801152526</v>
+        <v>55.06186137736457</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.03528910686767</v>
+        <v>11.12431380401284</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.34234840696952</v>
+        <v>15.22654448361333</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.0190423573812</v>
+        <v>12.02233007408403</v>
       </c>
       <c r="C21">
-        <v>8.290028089621945</v>
+        <v>4.034249696575884</v>
       </c>
       <c r="D21">
-        <v>12.90107410948464</v>
+        <v>10.30381033816641</v>
       </c>
       <c r="E21">
-        <v>18.85999003487876</v>
+        <v>12.99797546315046</v>
       </c>
       <c r="F21">
-        <v>80.56062869078909</v>
+        <v>56.73142329920917</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.94692874326084</v>
+        <v>11.20234171921845</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.53938613656419</v>
+        <v>15.39435307952887</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.71060697438372</v>
+        <v>12.14185529005171</v>
       </c>
       <c r="C22">
-        <v>8.653016455088006</v>
+        <v>4.102618881582043</v>
       </c>
       <c r="D22">
-        <v>13.27575268002646</v>
+        <v>10.43633559575721</v>
       </c>
       <c r="E22">
-        <v>19.65732527254852</v>
+        <v>13.23509037659055</v>
       </c>
       <c r="F22">
-        <v>83.4195198034072</v>
+        <v>57.7986471658409</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.53110881234427</v>
+        <v>11.25754922720895</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.3052149154451</v>
+        <v>15.50742684017475</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.34275961523903</v>
+        <v>12.07776980841755</v>
       </c>
       <c r="C23">
-        <v>8.459536706689851</v>
+        <v>4.065964575106728</v>
       </c>
       <c r="D23">
-        <v>13.07608933572052</v>
+        <v>10.36587423524127</v>
       </c>
       <c r="E23">
-        <v>19.23330092677772</v>
+        <v>13.10882111983352</v>
       </c>
       <c r="F23">
-        <v>81.8981505130412</v>
+        <v>57.23132035639065</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.22028821238626</v>
+        <v>11.22770346045754</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.89786705851031</v>
+        <v>15.4467762389704</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.9202082644885</v>
+        <v>11.84174046483327</v>
       </c>
       <c r="C24">
-        <v>7.719803767810854</v>
+        <v>3.930974701666595</v>
       </c>
       <c r="D24">
-        <v>12.31241995734658</v>
+        <v>10.09318914281384</v>
       </c>
       <c r="E24">
-        <v>17.59169200505682</v>
+        <v>12.6248072318238</v>
       </c>
       <c r="F24">
-        <v>76.03327801527502</v>
+        <v>55.03418800606917</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.0201721826473</v>
+        <v>11.12311062402084</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.32247946824122</v>
+        <v>15.22386139967276</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.3124947198666</v>
+        <v>11.60301839804319</v>
       </c>
       <c r="C25">
-        <v>6.899222997355392</v>
+        <v>3.794959186903964</v>
       </c>
       <c r="D25">
-        <v>11.46925126205127</v>
+        <v>9.787310752556808</v>
       </c>
       <c r="E25">
-        <v>15.7327807419284</v>
+        <v>12.09329909037857</v>
       </c>
       <c r="F25">
-        <v>69.46376474828949</v>
+        <v>52.57033774658073</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.66710056633057</v>
+        <v>11.0288156146142</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.54156414622913</v>
+        <v>14.99900575517166</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.44237473425257</v>
+        <v>12.05675308284965</v>
       </c>
       <c r="C2">
-        <v>3.704411347280387</v>
+        <v>6.268975176312927</v>
       </c>
       <c r="D2">
-        <v>9.552705627693321</v>
+        <v>10.82938286242658</v>
       </c>
       <c r="E2">
-        <v>11.69700795633191</v>
+        <v>14.42889633780776</v>
       </c>
       <c r="F2">
-        <v>50.68607110340694</v>
+        <v>64.40254570431229</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.97568907855668</v>
+        <v>10.61227069119693</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.84782912126718</v>
+        <v>14.14989218090209</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.34362332433227</v>
+        <v>11.15710074065231</v>
       </c>
       <c r="C3">
-        <v>3.649666658397357</v>
+        <v>5.822900740557073</v>
       </c>
       <c r="D3">
-        <v>9.388250751436674</v>
+        <v>10.38332715384643</v>
       </c>
       <c r="E3">
-        <v>11.4271104078</v>
+        <v>13.51023002327165</v>
       </c>
       <c r="F3">
-        <v>49.37148576754086</v>
+        <v>60.83062059378862</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,13 +483,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.94998322847086</v>
+        <v>9.857434621202851</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.75478778018307</v>
+        <v>13.15235054085781</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.28818494904763</v>
+        <v>10.57967906708215</v>
       </c>
       <c r="C4">
-        <v>3.619505316429356</v>
+        <v>5.538905971891979</v>
       </c>
       <c r="D4">
-        <v>9.284724299055879</v>
+        <v>10.10332311270792</v>
       </c>
       <c r="E4">
-        <v>11.26136667513819</v>
+        <v>12.92855671217681</v>
       </c>
       <c r="F4">
-        <v>48.54807847348761</v>
+        <v>58.56839635428369</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,13 +524,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.93930522970984</v>
+        <v>9.373264386610128</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.70243272264884</v>
+        <v>12.51181937358353</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.26692793595285</v>
+        <v>10.33794374422737</v>
       </c>
       <c r="C5">
-        <v>3.608107096826746</v>
+        <v>5.420535960203812</v>
       </c>
       <c r="D5">
-        <v>9.241918013633013</v>
+        <v>9.987697729106396</v>
       </c>
       <c r="E5">
-        <v>11.1939170698023</v>
+        <v>12.68716059634784</v>
       </c>
       <c r="F5">
-        <v>48.20882126946</v>
+        <v>57.62949425260165</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,13 +565,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.93623994860149</v>
+        <v>9.170625074986418</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.68231567461216</v>
+        <v>12.24358775290769</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.26347958681193</v>
+        <v>10.29741163393832</v>
       </c>
       <c r="C6">
-        <v>3.60626899660653</v>
+        <v>5.400718571131065</v>
       </c>
       <c r="D6">
-        <v>9.234773397616019</v>
+        <v>9.968407167004568</v>
       </c>
       <c r="E6">
-        <v>11.18272562102473</v>
+        <v>12.6468167222172</v>
       </c>
       <c r="F6">
-        <v>48.15227499772809</v>
+        <v>57.47257513362762</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.93580866534142</v>
+        <v>9.136651069528677</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.6790493008559</v>
+        <v>12.19860825076958</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.28789283126425</v>
+        <v>10.57644515012652</v>
       </c>
       <c r="C7">
-        <v>3.61934795157548</v>
+        <v>5.53732040467968</v>
       </c>
       <c r="D7">
-        <v>9.284149471485133</v>
+        <v>10.10176987306574</v>
       </c>
       <c r="E7">
-        <v>11.26045652012322</v>
+        <v>12.92531868085469</v>
       </c>
       <c r="F7">
-        <v>48.54351765333974</v>
+        <v>58.55580236245276</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,13 +647,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.93925868147933</v>
+        <v>9.370553292691813</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.7021564632805</v>
+        <v>12.50823130145932</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.40726485426869</v>
+        <v>11.75166087263609</v>
       </c>
       <c r="C8">
-        <v>3.684834907120255</v>
+        <v>6.117202402752807</v>
       </c>
       <c r="D8">
-        <v>9.496544426934099</v>
+        <v>10.67685997916013</v>
       </c>
       <c r="E8">
-        <v>11.60401101386664</v>
+        <v>14.11581884702062</v>
       </c>
       <c r="F8">
-        <v>50.23639124676016</v>
+        <v>63.18542273557469</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.96576801927881</v>
+        <v>10.35621616443965</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.81476934179019</v>
+        <v>13.81165748401388</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.68117845573765</v>
+        <v>13.86469263026994</v>
       </c>
       <c r="C9">
-        <v>3.839373611735051</v>
+        <v>7.179287508463822</v>
       </c>
       <c r="D9">
-        <v>9.891854797306292</v>
+        <v>11.7561184307486</v>
       </c>
       <c r="E9">
-        <v>12.27332883099231</v>
+        <v>16.37170422729795</v>
       </c>
       <c r="F9">
-        <v>53.41194598369502</v>
+        <v>71.71086892803935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,13 +729,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.05806812180469</v>
+        <v>12.13148233985236</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.0725769380567</v>
+        <v>16.15333535759195</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.9046271383813</v>
+        <v>15.31161208198193</v>
       </c>
       <c r="C10">
-        <v>3.96692395228656</v>
+        <v>7.92201757171017</v>
       </c>
       <c r="D10">
-        <v>10.16815792730414</v>
+        <v>12.52107685083313</v>
       </c>
       <c r="E10">
-        <v>12.75705989669339</v>
+        <v>18.04366053478414</v>
       </c>
       <c r="F10">
-        <v>55.63838383000779</v>
+        <v>77.64328012000405</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,13 +770,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.15006230053062</v>
+        <v>13.35008629686797</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.28318677714536</v>
+        <v>17.75595861931626</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.01061195839896</v>
+        <v>15.94990190038907</v>
       </c>
       <c r="C11">
-        <v>4.027546042171851</v>
+        <v>8.253915042976615</v>
       </c>
       <c r="D11">
-        <v>10.2905510022568</v>
+        <v>12.86378223606975</v>
       </c>
       <c r="E11">
-        <v>12.97434257127292</v>
+        <v>18.78023803743615</v>
       </c>
       <c r="F11">
-        <v>56.62460640975666</v>
+        <v>80.27514303889402</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,13 +811,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.19703857565526</v>
+        <v>13.88856431281643</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.38327779852169</v>
+        <v>18.46282009508348</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.05132598050291</v>
+        <v>16.1890302286068</v>
       </c>
       <c r="C12">
-        <v>4.050837442484678</v>
+        <v>8.378951169510728</v>
       </c>
       <c r="D12">
-        <v>10.3364052369354</v>
+        <v>12.99289296078571</v>
       </c>
       <c r="E12">
-        <v>13.05614419235969</v>
+        <v>19.0560385162492</v>
       </c>
       <c r="F12">
-        <v>56.99397989460226</v>
+        <v>81.26280623863768</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.21555132962569</v>
+        <v>14.09045329848367</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.42176612932296</v>
+        <v>18.72762934138915</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.04253240573798</v>
+        <v>16.13763930819934</v>
       </c>
       <c r="C13">
-        <v>4.045806931880029</v>
+        <v>8.352047396739874</v>
       </c>
       <c r="D13">
-        <v>10.32655194089188</v>
+        <v>12.96511439674889</v>
       </c>
       <c r="E13">
-        <v>13.03854925731611</v>
+        <v>18.9967732271828</v>
       </c>
       <c r="F13">
-        <v>56.91461444482972</v>
+        <v>81.05048165853542</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,13 +893,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.21153231607284</v>
+        <v>14.04705819999943</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.41345140434989</v>
+        <v>18.6707195927948</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.01395015858823</v>
+        <v>15.96962500934344</v>
       </c>
       <c r="C14">
-        <v>4.029455744211914</v>
+        <v>8.264213454342876</v>
       </c>
       <c r="D14">
-        <v>10.29433345058974</v>
+        <v>12.87441692629866</v>
       </c>
       <c r="E14">
-        <v>12.9810824728142</v>
+        <v>18.80298890291526</v>
       </c>
       <c r="F14">
-        <v>56.65507833461289</v>
+        <v>80.35657397538817</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.19854720726178</v>
+        <v>13.90521271019812</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.38643268753898</v>
+        <v>18.48466146830186</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.9965169053719</v>
+        <v>15.86638487081476</v>
       </c>
       <c r="C15">
-        <v>4.019482667857266</v>
+        <v>8.210335348908723</v>
       </c>
       <c r="D15">
-        <v>10.2745338982725</v>
+        <v>12.81877887030469</v>
       </c>
       <c r="E15">
-        <v>12.94581778671373</v>
+        <v>18.68389390207458</v>
       </c>
       <c r="F15">
-        <v>56.49556523547277</v>
+        <v>79.93039035259069</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.19068729102549</v>
+        <v>13.81807347128349</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.3699583524695</v>
+        <v>18.37033302555376</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.89778433558923</v>
+        <v>15.26952102509997</v>
       </c>
       <c r="C16">
-        <v>3.963011156249233</v>
+        <v>7.90022453803526</v>
       </c>
       <c r="D16">
-        <v>10.16009122350831</v>
+        <v>12.49858150407849</v>
       </c>
       <c r="E16">
-        <v>12.74279724088585</v>
+        <v>17.99506725449936</v>
       </c>
       <c r="F16">
-        <v>55.57337365974681</v>
+        <v>77.46998745777192</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,13 +1016,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.14709435834292</v>
+        <v>13.31459761486672</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.27672925963607</v>
+        <v>17.70934400339154</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.83829512793001</v>
+        <v>14.8984531884668</v>
       </c>
       <c r="C17">
-        <v>3.929005946691698</v>
+        <v>7.70859299158138</v>
       </c>
       <c r="D17">
-        <v>10.08902560570922</v>
+        <v>12.30085775042079</v>
       </c>
       <c r="E17">
-        <v>12.61748251575429</v>
+        <v>17.56656395962762</v>
       </c>
       <c r="F17">
-        <v>55.00063251619699</v>
+        <v>75.94389023421819</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.12165577830785</v>
+        <v>13.00184096490522</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.22061246531633</v>
+        <v>17.29838497616562</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.80448942701469</v>
+        <v>14.68313030737564</v>
       </c>
       <c r="C18">
-        <v>3.909694000716925</v>
+        <v>7.597794784548317</v>
       </c>
       <c r="D18">
-        <v>10.04784112990733</v>
+        <v>12.18662824371195</v>
       </c>
       <c r="E18">
-        <v>12.5451486308217</v>
+        <v>17.31781872410545</v>
       </c>
       <c r="F18">
-        <v>54.66871791209221</v>
+        <v>75.05977970193179</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.10750774178572</v>
+        <v>12.82044008926142</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.18874063831639</v>
+        <v>17.05990248110763</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.79311528715967</v>
+        <v>14.60989223605001</v>
       </c>
       <c r="C19">
-        <v>3.903198894301439</v>
+        <v>7.560175378459211</v>
       </c>
       <c r="D19">
-        <v>10.03384423031111</v>
+        <v>12.14786308651881</v>
       </c>
       <c r="E19">
-        <v>12.52061616459458</v>
+        <v>17.23319683669126</v>
       </c>
       <c r="F19">
-        <v>54.55591824287033</v>
+        <v>74.759329862803</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.10280089442724</v>
+        <v>12.75875389970295</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.17801984721596</v>
+        <v>16.97878489257674</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.84458564063019</v>
+        <v>14.93814812062603</v>
       </c>
       <c r="C20">
-        <v>3.932600579904408</v>
+        <v>7.729050755151183</v>
       </c>
       <c r="D20">
-        <v>10.09662282638468</v>
+        <v>12.32195734881255</v>
       </c>
       <c r="E20">
-        <v>12.63084959505192</v>
+        <v>17.61241277858399</v>
       </c>
       <c r="F20">
-        <v>55.06186137736457</v>
+        <v>76.10699801152484</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.12431380401284</v>
+        <v>13.03528910686773</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.22654448361333</v>
+        <v>17.34234840696948</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.02233007408403</v>
+        <v>16.0190423573813</v>
       </c>
       <c r="C21">
-        <v>4.034249696575884</v>
+        <v>8.290028089621879</v>
       </c>
       <c r="D21">
-        <v>10.30381033816641</v>
+        <v>12.90107410948471</v>
       </c>
       <c r="E21">
-        <v>12.99797546315046</v>
+        <v>18.85999003487874</v>
       </c>
       <c r="F21">
-        <v>56.73142329920917</v>
+        <v>80.56062869078899</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.20234171921845</v>
+        <v>13.94692874326092</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.39435307952887</v>
+        <v>18.5393861365642</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.14185529005171</v>
+        <v>16.71060697438359</v>
       </c>
       <c r="C22">
-        <v>4.102618881582043</v>
+        <v>8.653016455087995</v>
       </c>
       <c r="D22">
-        <v>10.43633559575721</v>
+        <v>13.27575268002626</v>
       </c>
       <c r="E22">
-        <v>13.23509037659055</v>
+        <v>19.65732527254856</v>
       </c>
       <c r="F22">
-        <v>57.7986471658409</v>
+        <v>83.41951980340652</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.25754922720895</v>
+        <v>14.53110881234423</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.50742684017475</v>
+        <v>19.30521491544509</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.07776980841755</v>
+        <v>16.34275961523923</v>
       </c>
       <c r="C23">
-        <v>4.065964575106728</v>
+        <v>8.4595367066898</v>
       </c>
       <c r="D23">
-        <v>10.36587423524127</v>
+        <v>13.07608933572053</v>
       </c>
       <c r="E23">
-        <v>13.10882111983352</v>
+        <v>19.23330092677772</v>
       </c>
       <c r="F23">
-        <v>57.23132035639065</v>
+        <v>81.89815051304173</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.22770346045754</v>
+        <v>14.22028821238644</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.4467762389704</v>
+        <v>18.89786705851039</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.84174046483327</v>
+        <v>14.92020826448838</v>
       </c>
       <c r="C24">
-        <v>3.930974701666595</v>
+        <v>7.719803767810762</v>
       </c>
       <c r="D24">
-        <v>10.09318914281384</v>
+        <v>12.31241995734647</v>
       </c>
       <c r="E24">
-        <v>12.6248072318238</v>
+        <v>17.59169200505673</v>
       </c>
       <c r="F24">
-        <v>55.03418800606917</v>
+        <v>76.03327801527495</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.12311062402084</v>
+        <v>13.02017218264717</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.22386139967276</v>
+        <v>17.32247946824112</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.60301839804319</v>
+        <v>13.31249471986662</v>
       </c>
       <c r="C25">
-        <v>3.794959186903964</v>
+        <v>6.899222997355116</v>
       </c>
       <c r="D25">
-        <v>9.787310752556808</v>
+        <v>11.46925126205106</v>
       </c>
       <c r="E25">
-        <v>12.09329909037857</v>
+        <v>15.73278074192838</v>
       </c>
       <c r="F25">
-        <v>52.57033774658073</v>
+        <v>69.46376474828912</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.0288156146142</v>
+        <v>11.66710056633057</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.99900575517166</v>
+        <v>15.54156414622912</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.05675308284965</v>
+        <v>12.69040799821321</v>
       </c>
       <c r="C2">
-        <v>6.268975176312927</v>
+        <v>8.075150144693271</v>
       </c>
       <c r="D2">
-        <v>10.82938286242658</v>
+        <v>5.425030935037118</v>
       </c>
       <c r="E2">
-        <v>14.42889633780776</v>
+        <v>8.120027054906366</v>
       </c>
       <c r="F2">
-        <v>64.40254570431229</v>
+        <v>19.95931071783081</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2.638334820477894</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.264624593792843</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>10.61227069119693</v>
+        <v>16.43058861326357</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.14989218090209</v>
+        <v>10.82068311353344</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.549839111107445</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.824903779440877</v>
+      </c>
+      <c r="P2">
+        <v>13.33471345586962</v>
+      </c>
+      <c r="Q2">
+        <v>16.57172488061253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.15710074065231</v>
+        <v>11.89906041211211</v>
       </c>
       <c r="C3">
-        <v>5.822900740557073</v>
+        <v>7.843061250604483</v>
       </c>
       <c r="D3">
-        <v>10.38332715384643</v>
+        <v>5.251166625081319</v>
       </c>
       <c r="E3">
-        <v>13.51023002327165</v>
+        <v>7.977094652210778</v>
       </c>
       <c r="F3">
-        <v>60.83062059378862</v>
+        <v>19.63563219834939</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2.810147024626833</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.404060521387325</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>9.857434621202851</v>
+        <v>16.43524173915099</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.15235054085781</v>
+        <v>10.21429080978874</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.388127300488587</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.456774195357356</v>
+      </c>
+      <c r="P3">
+        <v>13.46852404015333</v>
+      </c>
+      <c r="Q3">
+        <v>16.49731503368216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.57967906708215</v>
+        <v>11.38404463275935</v>
       </c>
       <c r="C4">
-        <v>5.538905971891979</v>
+        <v>7.697132091535214</v>
       </c>
       <c r="D4">
-        <v>10.10332311270792</v>
+        <v>5.140857393646605</v>
       </c>
       <c r="E4">
-        <v>12.92855671217681</v>
+        <v>7.886521055678394</v>
       </c>
       <c r="F4">
-        <v>58.56839635428369</v>
+        <v>19.44186246250899</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2.919678888273807</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.493736239960855</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>9.373264386610128</v>
+        <v>16.44130901612606</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.51181937358353</v>
+        <v>9.822093231313747</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.286850401003672</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.223443807381623</v>
+      </c>
+      <c r="P4">
+        <v>13.55220042148114</v>
+      </c>
+      <c r="Q4">
+        <v>16.45669095725688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.33794374422737</v>
+        <v>11.16199031203429</v>
       </c>
       <c r="C5">
-        <v>5.420535960203812</v>
+        <v>7.640199145105693</v>
       </c>
       <c r="D5">
-        <v>9.987697729106396</v>
+        <v>5.096138109830945</v>
       </c>
       <c r="E5">
-        <v>12.68716059634784</v>
+        <v>7.847469188291124</v>
       </c>
       <c r="F5">
-        <v>57.62949425260165</v>
+        <v>19.35803248244531</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2.965645527954168</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.533936802931374</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>9.170625074986418</v>
+        <v>16.43991586460178</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.24358775290769</v>
+        <v>9.657113577938505</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.245613904670614</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.125453687083953</v>
+      </c>
+      <c r="P5">
+        <v>13.58615295777709</v>
+      </c>
+      <c r="Q5">
+        <v>16.43693666985946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.29741163393832</v>
+        <v>11.11867043030924</v>
       </c>
       <c r="C6">
-        <v>5.400718571131065</v>
+        <v>7.634854311563108</v>
       </c>
       <c r="D6">
-        <v>9.968407167004568</v>
+        <v>5.090005269613346</v>
       </c>
       <c r="E6">
-        <v>12.6468167222172</v>
+        <v>7.83917326572333</v>
       </c>
       <c r="F6">
-        <v>57.47257513362762</v>
+        <v>19.33663182485521</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2.973712132165298</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.544046159341487</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>9.136651069528677</v>
+        <v>16.43403824892303</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.19860825076958</v>
+        <v>9.629154013423125</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.239350280537143</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.10762964105899</v>
+      </c>
+      <c r="P6">
+        <v>13.59116262062301</v>
+      </c>
+      <c r="Q6">
+        <v>16.42828402222418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.57644515012652</v>
+        <v>11.36503678328044</v>
       </c>
       <c r="C7">
-        <v>5.53732040467968</v>
+        <v>7.70765791169181</v>
       </c>
       <c r="D7">
-        <v>10.10176987306574</v>
+        <v>5.143906725678613</v>
       </c>
       <c r="E7">
-        <v>12.92531868085469</v>
+        <v>7.881210454340894</v>
       </c>
       <c r="F7">
-        <v>58.55580236245276</v>
+        <v>19.42019670065569</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2.921290982276695</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.503190432458854</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>9.370553292691813</v>
+        <v>16.42576555763875</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.50823130145932</v>
+        <v>9.819169250315724</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.287957448569694</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.218212790770124</v>
+      </c>
+      <c r="P7">
+        <v>13.55092583946738</v>
+      </c>
+      <c r="Q7">
+        <v>16.4415853787047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.75166087263609</v>
+        <v>12.4039720411366</v>
       </c>
       <c r="C8">
-        <v>6.117202402752807</v>
+        <v>8.010498374541369</v>
       </c>
       <c r="D8">
-        <v>10.67685997916013</v>
+        <v>5.370558655133075</v>
       </c>
       <c r="E8">
-        <v>14.11581884702062</v>
+        <v>8.06521257713402</v>
       </c>
       <c r="F8">
-        <v>63.18542273557469</v>
+        <v>19.820156726749</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2.697983928993615</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.323213473448676</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>10.35621616443965</v>
+        <v>16.41113220108679</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.81165748401388</v>
+        <v>10.61486732061153</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.496681476869709</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.694601609544637</v>
+      </c>
+      <c r="P8">
+        <v>13.3784699391059</v>
+      </c>
+      <c r="Q8">
+        <v>16.52560034495207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.86469263026994</v>
+        <v>14.2400926190495</v>
       </c>
       <c r="C9">
-        <v>7.179287508463822</v>
+        <v>8.557171626189476</v>
       </c>
       <c r="D9">
-        <v>11.7561184307486</v>
+        <v>5.779339235776374</v>
       </c>
       <c r="E9">
-        <v>16.37170422729795</v>
+        <v>8.411403185703149</v>
       </c>
       <c r="F9">
-        <v>71.71086892803935</v>
+        <v>20.67662815994813</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.289953425063769</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.987559200902575</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>12.13148233985236</v>
+        <v>16.43611082345343</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.15333535759195</v>
+        <v>12.01681625136955</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.885863476030448</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.57302649623647</v>
+      </c>
+      <c r="P9">
+        <v>13.05458849363973</v>
+      </c>
+      <c r="Q9">
+        <v>16.75748831323329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.31161208198193</v>
+        <v>15.44752180056259</v>
       </c>
       <c r="C10">
-        <v>7.92201757171017</v>
+        <v>8.979306014258276</v>
       </c>
       <c r="D10">
-        <v>12.52107685083313</v>
+        <v>6.078754566580272</v>
       </c>
       <c r="E10">
-        <v>18.04366053478414</v>
+        <v>8.549199829947755</v>
       </c>
       <c r="F10">
-        <v>77.64328012000405</v>
+        <v>21.22414537372508</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.038736331432293</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.770397308456276</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>13.35008629686797</v>
+        <v>16.39845172766148</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.75595861931626</v>
+        <v>12.9445233997292</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.060694366794126</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.08647469925859</v>
+      </c>
+      <c r="P10">
+        <v>12.81754999475163</v>
+      </c>
+      <c r="Q10">
+        <v>16.8784874081884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.94990190038907</v>
+        <v>15.60951890935779</v>
       </c>
       <c r="C11">
-        <v>8.253915042976615</v>
+        <v>9.485727931283446</v>
       </c>
       <c r="D11">
-        <v>12.86378223606975</v>
+        <v>6.362577009438035</v>
       </c>
       <c r="E11">
-        <v>18.78023803743615</v>
+        <v>7.885663889201468</v>
       </c>
       <c r="F11">
-        <v>80.27514303889402</v>
+        <v>20.66121276930325</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2.964856256500231</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.731817084604495</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>13.88856431281643</v>
+        <v>15.80080024025707</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.46282009508348</v>
+        <v>13.31901191271192</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.326884579817023</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.55716929782788</v>
+      </c>
+      <c r="P11">
+        <v>12.68148788776552</v>
+      </c>
+      <c r="Q11">
+        <v>16.32455573297011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.1890302286068</v>
+        <v>15.51846740268011</v>
       </c>
       <c r="C12">
-        <v>8.378951169510728</v>
+        <v>9.835116144336579</v>
       </c>
       <c r="D12">
-        <v>12.99289296078571</v>
+        <v>6.540260435058051</v>
       </c>
       <c r="E12">
-        <v>19.0560385162492</v>
+        <v>7.527994747058665</v>
       </c>
       <c r="F12">
-        <v>81.26280623863768</v>
+        <v>20.08520010418118</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.29378264214349</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.723796861109204</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>14.09045329848367</v>
+        <v>15.33214850648924</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.72762934138915</v>
+        <v>13.44768411567362</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.742165422969631</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.00444722513394</v>
+      </c>
+      <c r="P12">
+        <v>12.6347197283691</v>
+      </c>
+      <c r="Q12">
+        <v>15.84596167877405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.13763930819934</v>
+        <v>15.20596621850596</v>
       </c>
       <c r="C13">
-        <v>8.352047396739874</v>
+        <v>10.10245376543781</v>
       </c>
       <c r="D13">
-        <v>12.96511439674889</v>
+        <v>6.654467907552148</v>
       </c>
       <c r="E13">
-        <v>18.9967732271828</v>
+        <v>7.401654350395627</v>
       </c>
       <c r="F13">
-        <v>81.05048165853542</v>
+        <v>19.42528673250574</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.689215046087237</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.754065469534581</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>14.04705819999943</v>
+        <v>14.91247482584256</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.6707195927948</v>
+        <v>13.39807555283334</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.259405346921302</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.384953397575131</v>
+      </c>
+      <c r="P13">
+        <v>12.64899543210437</v>
+      </c>
+      <c r="Q13">
+        <v>15.3719971107528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.96962500934344</v>
+        <v>14.87879828045892</v>
       </c>
       <c r="C14">
-        <v>8.264213454342876</v>
+        <v>10.26017194856966</v>
       </c>
       <c r="D14">
-        <v>12.87441692629866</v>
+        <v>6.707852521964194</v>
       </c>
       <c r="E14">
-        <v>18.80298890291526</v>
+        <v>7.457200694873133</v>
       </c>
       <c r="F14">
-        <v>80.35657397538817</v>
+        <v>18.91725384944223</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.684984356340834</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.795494159562319</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>13.90521271019812</v>
+        <v>14.64149409360195</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.48466146830186</v>
+        <v>13.281993581438</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.998767428449328</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.916680218922863</v>
+      </c>
+      <c r="P14">
+        <v>12.6874473388418</v>
+      </c>
+      <c r="Q14">
+        <v>15.03992813994825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.86638487081476</v>
+        <v>14.74545163514377</v>
       </c>
       <c r="C15">
-        <v>8.210335348908723</v>
+        <v>10.28396386444234</v>
       </c>
       <c r="D15">
-        <v>12.81877887030469</v>
+        <v>6.708237553820213</v>
       </c>
       <c r="E15">
-        <v>18.68389390207458</v>
+        <v>7.486428263877533</v>
       </c>
       <c r="F15">
-        <v>79.93039035259069</v>
+        <v>18.77013925627674</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.917532958602949</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.818703225414137</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>13.81807347128349</v>
+        <v>14.58141419759484</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.37033302555376</v>
+        <v>13.21481778734139</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.947676790038674</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.786974094954106</v>
+      </c>
+      <c r="P15">
+        <v>12.70755784977722</v>
+      </c>
+      <c r="Q15">
+        <v>14.95652479093294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.26952102509997</v>
+        <v>14.28235427425934</v>
       </c>
       <c r="C16">
-        <v>7.90022453803526</v>
+        <v>10.06885729176999</v>
       </c>
       <c r="D16">
-        <v>12.49858150407849</v>
+        <v>6.566802375445696</v>
       </c>
       <c r="E16">
-        <v>17.99506725449936</v>
+        <v>7.439332407184225</v>
       </c>
       <c r="F16">
-        <v>77.46998745777192</v>
+        <v>18.63541103092914</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.722539821058676</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.910960636937303</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>13.31459761486672</v>
+        <v>14.67639776391705</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.70934400339154</v>
+        <v>12.84173626493372</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.960148015220557</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.667066937888626</v>
+      </c>
+      <c r="P16">
+        <v>12.7972836013608</v>
+      </c>
+      <c r="Q16">
+        <v>14.98734546435934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.8984531884668</v>
+        <v>14.1019831542192</v>
       </c>
       <c r="C17">
-        <v>7.70859299158138</v>
+        <v>9.813725846644802</v>
       </c>
       <c r="D17">
-        <v>12.30085775042079</v>
+        <v>6.427308119372406</v>
       </c>
       <c r="E17">
-        <v>17.56656395962762</v>
+        <v>7.349569704255233</v>
       </c>
       <c r="F17">
-        <v>75.94389023421819</v>
+        <v>18.80833302209679</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6.014016954911583</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.960568282790741</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>13.00184096490522</v>
+        <v>14.89057268216282</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.29838497616562</v>
+        <v>12.61405205003955</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.094224119158184</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.829732767195253</v>
+      </c>
+      <c r="P17">
+        <v>12.84635262842244</v>
+      </c>
+      <c r="Q17">
+        <v>15.18807766600889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.68313030737564</v>
+        <v>14.1634915077943</v>
       </c>
       <c r="C18">
-        <v>7.597794784548317</v>
+        <v>9.494274443866811</v>
       </c>
       <c r="D18">
-        <v>12.18662824371195</v>
+        <v>6.273438927596915</v>
       </c>
       <c r="E18">
-        <v>17.31781872410545</v>
+        <v>7.347490888274002</v>
       </c>
       <c r="F18">
-        <v>75.05977970193179</v>
+        <v>19.27574224598894</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.818071637184778</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.96684386229818</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>12.82044008926142</v>
+        <v>15.24840686803071</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.05990248110763</v>
+        <v>12.49161000048273</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.421459316443573</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.260484110673014</v>
+      </c>
+      <c r="P18">
+        <v>12.87342664230033</v>
+      </c>
+      <c r="Q18">
+        <v>15.56753683921211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.60989223605001</v>
+        <v>14.39077173794267</v>
       </c>
       <c r="C19">
-        <v>7.560175378459211</v>
+        <v>9.191100622366347</v>
       </c>
       <c r="D19">
-        <v>12.14786308651881</v>
+        <v>6.130272210835133</v>
       </c>
       <c r="E19">
-        <v>17.23319683669126</v>
+        <v>7.609524056549517</v>
       </c>
       <c r="F19">
-        <v>74.759329862803</v>
+        <v>19.90516479148552</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.440727707505131</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.954722178189267</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>12.75875389970295</v>
+        <v>15.68309360005588</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.97878489257674</v>
+        <v>12.46416123444822</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.968628229378053</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.869174249735227</v>
+      </c>
+      <c r="P19">
+        <v>12.89157402210558</v>
+      </c>
+      <c r="Q19">
+        <v>16.03994691710856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.93814812062603</v>
+        <v>15.1005149471999</v>
       </c>
       <c r="C20">
-        <v>7.729050755151183</v>
+        <v>8.904300043213356</v>
       </c>
       <c r="D20">
-        <v>12.32195734881255</v>
+        <v>6.012724917551491</v>
       </c>
       <c r="E20">
-        <v>17.61241277858399</v>
+        <v>8.496098051299464</v>
       </c>
       <c r="F20">
-        <v>76.10699801152484</v>
+        <v>21.01660019146343</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2.105606946758293</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.857105101057668</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>13.03528910686773</v>
+        <v>16.35747275585042</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.34234840696948</v>
+        <v>12.7057036321653</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.015620982576647</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.93993517556156</v>
+      </c>
+      <c r="P20">
+        <v>12.8754072514023</v>
+      </c>
+      <c r="Q20">
+        <v>16.79778255885276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.0190423573813</v>
+        <v>16.04895556792131</v>
       </c>
       <c r="C21">
-        <v>8.290028089621879</v>
+        <v>9.164547927704735</v>
       </c>
       <c r="D21">
-        <v>12.90107410948471</v>
+        <v>6.207755457220903</v>
       </c>
       <c r="E21">
-        <v>18.85999003487874</v>
+        <v>8.755376673220715</v>
       </c>
       <c r="F21">
-        <v>80.56062869078899</v>
+        <v>21.59588635969003</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1.873503786629626</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.683624876286883</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>13.94692874326092</v>
+        <v>16.44588902225791</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.5393861365642</v>
+        <v>13.39115672953511</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.299124100747951</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.45727312420236</v>
+      </c>
+      <c r="P21">
+        <v>12.7041328247976</v>
+      </c>
+      <c r="Q21">
+        <v>17.01499449089829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.71060697438359</v>
+        <v>16.63449031043869</v>
       </c>
       <c r="C22">
-        <v>8.653016455087995</v>
+        <v>9.335264093292347</v>
       </c>
       <c r="D22">
-        <v>13.27575268002626</v>
+        <v>6.335875281156551</v>
       </c>
       <c r="E22">
-        <v>19.65732527254856</v>
+        <v>8.876107463851513</v>
       </c>
       <c r="F22">
-        <v>83.41951980340652</v>
+        <v>21.95336485326681</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1.73798729727209</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.563138809376267</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>14.53110881234423</v>
+        <v>16.49303304958028</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.30521491544509</v>
+        <v>13.82009170652578</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.428558616741271</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.74559105826278</v>
+      </c>
+      <c r="P22">
+        <v>12.59203639416375</v>
+      </c>
+      <c r="Q22">
+        <v>17.14495691487046</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.34275961523923</v>
+        <v>16.33819643677382</v>
       </c>
       <c r="C23">
-        <v>8.4595367066898</v>
+        <v>9.232344785162173</v>
       </c>
       <c r="D23">
-        <v>13.07608933572053</v>
+        <v>6.264024457215537</v>
       </c>
       <c r="E23">
-        <v>19.23330092677772</v>
+        <v>8.816787562152824</v>
       </c>
       <c r="F23">
-        <v>81.89815051304173</v>
+        <v>21.7838643089469</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1.809117071659408</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.6148199860814</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>14.22028821238644</v>
+        <v>16.48518844479771</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.89786705851039</v>
+        <v>13.59347152407792</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.357925941816871</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.59630571676365</v>
+      </c>
+      <c r="P23">
+        <v>12.65308449670337</v>
+      </c>
+      <c r="Q23">
+        <v>17.09157754375351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.92020826448838</v>
+        <v>15.13850277760041</v>
       </c>
       <c r="C24">
-        <v>7.719803767810762</v>
+        <v>8.854798513504667</v>
       </c>
       <c r="D24">
-        <v>12.31241995734647</v>
+        <v>5.99014024366244</v>
       </c>
       <c r="E24">
-        <v>17.59169200505673</v>
+        <v>8.579155951067298</v>
       </c>
       <c r="F24">
-        <v>76.03327801527495</v>
+        <v>21.11339718419644</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.086141869812715</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.837256138613356</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>13.02017218264717</v>
+        <v>16.43516278879934</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.32247946824112</v>
+        <v>12.69766527033595</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.087808244545653</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.00720810295375</v>
+      </c>
+      <c r="P24">
+        <v>12.88429621545766</v>
+      </c>
+      <c r="Q24">
+        <v>16.87421338431016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.31249471986662</v>
+        <v>13.73988679364026</v>
       </c>
       <c r="C25">
-        <v>6.899222997355116</v>
+        <v>8.431776727515574</v>
       </c>
       <c r="D25">
-        <v>11.46925126205106</v>
+        <v>5.678270169134871</v>
       </c>
       <c r="E25">
-        <v>15.73278074192838</v>
+        <v>8.312269202257848</v>
       </c>
       <c r="F25">
-        <v>69.46376474828912</v>
+        <v>20.40640397503818</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.39860485162637</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.091422759469424</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>11.66710056633057</v>
+        <v>16.39891622410515</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.54156414622912</v>
+        <v>11.65374054380151</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.785508124180637</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>10.33628436489053</v>
+      </c>
+      <c r="P25">
+        <v>13.13856611978638</v>
+      </c>
+      <c r="Q25">
+        <v>16.66421344110269</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.69040799821321</v>
+        <v>12.38941857454377</v>
       </c>
       <c r="C2">
-        <v>8.075150144693271</v>
+        <v>7.959035587431796</v>
       </c>
       <c r="D2">
-        <v>5.425030935037118</v>
+        <v>5.440577217755162</v>
       </c>
       <c r="E2">
-        <v>8.120027054906366</v>
+        <v>8.015649162504877</v>
       </c>
       <c r="F2">
-        <v>19.95931071783081</v>
+        <v>19.3219493496935</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.638334820477894</v>
+        <v>2.522271710365533</v>
       </c>
       <c r="I2">
-        <v>3.264624593792843</v>
+        <v>3.118980994587272</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>16.43058861326357</v>
+        <v>15.76435913797142</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.90234242431917</v>
       </c>
       <c r="M2">
-        <v>10.82068311353344</v>
+        <v>10.42036695003534</v>
       </c>
       <c r="N2">
-        <v>6.549839111107445</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.824903779440877</v>
+        <v>10.85333959750153</v>
       </c>
       <c r="P2">
-        <v>13.33471345586962</v>
+        <v>6.693949645922078</v>
       </c>
       <c r="Q2">
-        <v>16.57172488061253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.717354641038568</v>
+      </c>
+      <c r="R2">
+        <v>13.1591078122871</v>
+      </c>
+      <c r="S2">
+        <v>16.03371272725581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.89906041211211</v>
+        <v>11.60034402514609</v>
       </c>
       <c r="C3">
-        <v>7.843061250604483</v>
+        <v>7.654696560025506</v>
       </c>
       <c r="D3">
-        <v>5.251166625081319</v>
+        <v>5.248069019971369</v>
       </c>
       <c r="E3">
-        <v>7.977094652210778</v>
+        <v>7.887968721866113</v>
       </c>
       <c r="F3">
-        <v>19.63563219834939</v>
+        <v>19.04882794096023</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.810147024626833</v>
+        <v>2.684001217837824</v>
       </c>
       <c r="I3">
-        <v>3.404060521387325</v>
+        <v>3.245180744943263</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>16.43524173915099</v>
+        <v>15.80386781010363</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.01974324335201</v>
       </c>
       <c r="M3">
-        <v>10.21429080978874</v>
+        <v>10.39015727588103</v>
       </c>
       <c r="N3">
-        <v>6.388127300488587</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.456774195357356</v>
+        <v>10.25216487987767</v>
       </c>
       <c r="P3">
-        <v>13.46852404015333</v>
+        <v>6.534441023176374</v>
       </c>
       <c r="Q3">
-        <v>16.49731503368216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.35778274734527</v>
+      </c>
+      <c r="R3">
+        <v>13.28819895459335</v>
+      </c>
+      <c r="S3">
+        <v>15.99627146769017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.38404463275935</v>
+        <v>11.08820159667578</v>
       </c>
       <c r="C4">
-        <v>7.697132091535214</v>
+        <v>7.463282308207233</v>
       </c>
       <c r="D4">
-        <v>5.140857393646605</v>
+        <v>5.125942225256932</v>
       </c>
       <c r="E4">
-        <v>7.886521055678394</v>
+        <v>7.806903422327169</v>
       </c>
       <c r="F4">
-        <v>19.44186246250899</v>
+        <v>18.88560916069615</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.919678888273807</v>
+        <v>2.787137319401146</v>
       </c>
       <c r="I4">
-        <v>3.493736239960855</v>
+        <v>3.326643628573898</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>16.44130901612606</v>
+        <v>15.83044923812521</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.09261216108414</v>
       </c>
       <c r="M4">
-        <v>9.822093231313747</v>
+        <v>10.38858115810814</v>
       </c>
       <c r="N4">
-        <v>6.286850401003672</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.223443807381623</v>
+        <v>9.863436584883402</v>
       </c>
       <c r="P4">
-        <v>13.55220042148114</v>
+        <v>6.434857439679926</v>
       </c>
       <c r="Q4">
-        <v>16.45669095725688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.129664140474366</v>
+      </c>
+      <c r="R4">
+        <v>13.36915744061847</v>
+      </c>
+      <c r="S4">
+        <v>15.97766630866513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.16199031203429</v>
+        <v>10.87486114156093</v>
       </c>
       <c r="C5">
-        <v>7.640199145105693</v>
+        <v>7.38826462065989</v>
       </c>
       <c r="D5">
-        <v>5.096138109830945</v>
+        <v>5.076372352806266</v>
       </c>
       <c r="E5">
-        <v>7.847469188291124</v>
+        <v>7.771793964891257</v>
       </c>
       <c r="F5">
-        <v>19.35803248244531</v>
+        <v>18.81410531685469</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.965645527954168</v>
+        <v>2.830440968925443</v>
       </c>
       <c r="I5">
-        <v>3.533936802931374</v>
+        <v>3.363935207030973</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>16.43991586460178</v>
+        <v>15.83732477700307</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.11820471054027</v>
       </c>
       <c r="M5">
-        <v>9.657113577938505</v>
+        <v>10.38969556423078</v>
       </c>
       <c r="N5">
-        <v>6.245613904670614</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.125453687083953</v>
+        <v>9.699943891490848</v>
       </c>
       <c r="P5">
-        <v>13.58615295777709</v>
+        <v>6.394393413989254</v>
       </c>
       <c r="Q5">
-        <v>16.43693666985946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.033781818341218</v>
+      </c>
+      <c r="R5">
+        <v>13.40214256467268</v>
+      </c>
+      <c r="S5">
+        <v>15.96676484599706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.11867043030924</v>
+        <v>10.8329666180926</v>
       </c>
       <c r="C6">
-        <v>7.634854311563108</v>
+        <v>7.380759999356743</v>
       </c>
       <c r="D6">
-        <v>5.090005269613346</v>
+        <v>5.069489342917555</v>
       </c>
       <c r="E6">
-        <v>7.83917326572333</v>
+        <v>7.764198959869686</v>
       </c>
       <c r="F6">
-        <v>19.33663182485521</v>
+        <v>18.79477646069685</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.973712132165298</v>
+        <v>2.838057162706103</v>
       </c>
       <c r="I6">
-        <v>3.544046159341487</v>
+        <v>3.374166696654743</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>16.43403824892303</v>
+        <v>15.83296961583818</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.11721719659147</v>
       </c>
       <c r="M6">
-        <v>9.629154013423125</v>
+        <v>10.38705645265247</v>
       </c>
       <c r="N6">
-        <v>6.239350280537143</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.10762964105899</v>
+        <v>9.672237856463575</v>
       </c>
       <c r="P6">
-        <v>13.59116262062301</v>
+        <v>6.388256999241065</v>
       </c>
       <c r="Q6">
-        <v>16.42828402222418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.016307284715889</v>
+      </c>
+      <c r="R6">
+        <v>13.4071139976205</v>
+      </c>
+      <c r="S6">
+        <v>15.9596436649596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.36503678328044</v>
+        <v>11.06925668633669</v>
       </c>
       <c r="C7">
-        <v>7.70765791169181</v>
+        <v>7.475912351470873</v>
       </c>
       <c r="D7">
-        <v>5.143906725678613</v>
+        <v>5.129089507837257</v>
       </c>
       <c r="E7">
-        <v>7.881210454340894</v>
+        <v>7.801772294099505</v>
       </c>
       <c r="F7">
-        <v>19.42019670065569</v>
+        <v>18.86422070634745</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.921290982276695</v>
+        <v>2.788699522200475</v>
       </c>
       <c r="I7">
-        <v>3.503190432458854</v>
+        <v>3.337650030837332</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>16.42576555763875</v>
+        <v>15.81549784061927</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.07899317970679</v>
       </c>
       <c r="M7">
-        <v>9.819169250315724</v>
+        <v>10.37981048730351</v>
       </c>
       <c r="N7">
-        <v>6.287957448569694</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9.218212790770124</v>
+        <v>9.860538491262872</v>
       </c>
       <c r="P7">
-        <v>13.55092583946738</v>
+        <v>6.43595908405347</v>
       </c>
       <c r="Q7">
-        <v>16.4415853787047</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.124464935336093</v>
+      </c>
+      <c r="R7">
+        <v>13.36821402872612</v>
+      </c>
+      <c r="S7">
+        <v>15.96289610257941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.4039720411366</v>
+        <v>12.10454342639877</v>
       </c>
       <c r="C8">
-        <v>8.010498374541369</v>
+        <v>7.87280669510326</v>
       </c>
       <c r="D8">
-        <v>5.370558655133075</v>
+        <v>5.379966357139843</v>
       </c>
       <c r="E8">
-        <v>8.06521257713402</v>
+        <v>7.96624632894862</v>
       </c>
       <c r="F8">
-        <v>19.820156726749</v>
+        <v>19.20050773631157</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.697983928993615</v>
+        <v>2.578464884572158</v>
       </c>
       <c r="I8">
-        <v>3.323213473448676</v>
+        <v>3.175059679368428</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>16.41113220108679</v>
+        <v>15.7578752181164</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.92573554915409</v>
       </c>
       <c r="M8">
-        <v>10.61486732061153</v>
+        <v>10.39344808895652</v>
       </c>
       <c r="N8">
-        <v>6.496681476869709</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.694601609544637</v>
+        <v>10.64927962048704</v>
       </c>
       <c r="P8">
-        <v>13.3784699391059</v>
+        <v>6.641470499592438</v>
       </c>
       <c r="Q8">
-        <v>16.52560034495207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.590018269555072</v>
+      </c>
+      <c r="R8">
+        <v>13.20172529618555</v>
+      </c>
+      <c r="S8">
+        <v>16.00081886329962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.2400926190495</v>
+        <v>13.91701754337184</v>
       </c>
       <c r="C9">
-        <v>8.557171626189476</v>
+        <v>8.589569356741695</v>
       </c>
       <c r="D9">
-        <v>5.779339235776374</v>
+        <v>5.832696351672205</v>
       </c>
       <c r="E9">
-        <v>8.411403185703149</v>
+        <v>8.275208823754818</v>
       </c>
       <c r="F9">
-        <v>20.67662815994813</v>
+        <v>19.92916259396225</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.289953425063769</v>
+        <v>2.194525464553078</v>
       </c>
       <c r="I9">
-        <v>2.987559200902575</v>
+        <v>2.870303686839875</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>16.43611082345343</v>
+        <v>15.69040379771446</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.6534221849712</v>
       </c>
       <c r="M9">
-        <v>12.01681625136955</v>
+        <v>10.57204507132685</v>
       </c>
       <c r="N9">
-        <v>6.885863476030448</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.57302649623647</v>
+        <v>12.03949661416869</v>
       </c>
       <c r="P9">
-        <v>13.05458849363973</v>
+        <v>7.026964282397702</v>
       </c>
       <c r="Q9">
-        <v>16.75748831323329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.44706109891838</v>
+      </c>
+      <c r="R9">
+        <v>12.89035534705415</v>
+      </c>
+      <c r="S9">
+        <v>16.13680335647994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.44752180056259</v>
+        <v>15.05725187630064</v>
       </c>
       <c r="C10">
-        <v>8.979306014258276</v>
+        <v>9.131604204828317</v>
       </c>
       <c r="D10">
-        <v>6.078754566580272</v>
+        <v>6.161338191093009</v>
       </c>
       <c r="E10">
-        <v>8.549199829947755</v>
+        <v>8.392512911877585</v>
       </c>
       <c r="F10">
-        <v>21.22414537372508</v>
+        <v>20.39113416957057</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.038736331432293</v>
+        <v>1.960155362406953</v>
       </c>
       <c r="I10">
-        <v>2.770397308456276</v>
+        <v>2.676141151634182</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>16.39845172766148</v>
+        <v>15.5900272789162</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.41106615656974</v>
       </c>
       <c r="M10">
-        <v>12.9445233997292</v>
+        <v>10.73007414805453</v>
       </c>
       <c r="N10">
-        <v>7.060694366794126</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>11.08647469925859</v>
+        <v>12.95981218390964</v>
       </c>
       <c r="P10">
-        <v>12.81754999475163</v>
+        <v>7.199765424859486</v>
       </c>
       <c r="Q10">
-        <v>16.8784874081884</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.94634753641954</v>
+      </c>
+      <c r="R10">
+        <v>12.66674022190864</v>
+      </c>
+      <c r="S10">
+        <v>16.1921346219962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.60951890935779</v>
+        <v>15.23483292856276</v>
       </c>
       <c r="C11">
-        <v>9.485727931283446</v>
+        <v>9.69906354874041</v>
       </c>
       <c r="D11">
-        <v>6.362577009438035</v>
+        <v>6.450739045614193</v>
       </c>
       <c r="E11">
-        <v>7.885663889201468</v>
+        <v>7.774000646820698</v>
       </c>
       <c r="F11">
-        <v>20.66121276930325</v>
+        <v>19.8613426338115</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.964856256500231</v>
+        <v>2.913496305739946</v>
       </c>
       <c r="I11">
-        <v>2.731817084604495</v>
+        <v>2.64693717991684</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>15.80080024025707</v>
+        <v>15.04344681594535</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.95375641368418</v>
       </c>
       <c r="M11">
-        <v>13.31901191271192</v>
+        <v>10.39424714094314</v>
       </c>
       <c r="N11">
-        <v>6.326884579817023</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.55716929782788</v>
+        <v>13.33340253677239</v>
       </c>
       <c r="P11">
-        <v>12.68148788776552</v>
+        <v>6.457531070151235</v>
       </c>
       <c r="Q11">
-        <v>16.32455573297011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.4225936251135</v>
+      </c>
+      <c r="R11">
+        <v>12.56160891748012</v>
+      </c>
+      <c r="S11">
+        <v>15.6701221452547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.51846740268011</v>
+        <v>15.17085990619013</v>
       </c>
       <c r="C12">
-        <v>9.835116144336579</v>
+        <v>10.06389807728302</v>
       </c>
       <c r="D12">
-        <v>6.540260435058051</v>
+        <v>6.626025714552605</v>
       </c>
       <c r="E12">
-        <v>7.527994747058665</v>
+        <v>7.46206480100042</v>
       </c>
       <c r="F12">
-        <v>20.08520010418118</v>
+        <v>19.33197000257085</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.29378264214349</v>
+        <v>4.25792164936861</v>
       </c>
       <c r="I12">
-        <v>2.723796861109204</v>
+        <v>2.639222743068244</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>15.33214850648924</v>
+        <v>14.63070303234031</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.64960409215237</v>
       </c>
       <c r="M12">
-        <v>13.44768411567362</v>
+        <v>10.08577929564232</v>
       </c>
       <c r="N12">
-        <v>5.742165422969631</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>10.00444722513394</v>
+        <v>13.46272913068179</v>
       </c>
       <c r="P12">
-        <v>12.6347197283691</v>
+        <v>5.864411098320803</v>
       </c>
       <c r="Q12">
-        <v>15.84596167877405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.877685152942245</v>
+      </c>
+      <c r="R12">
+        <v>12.53540629531059</v>
+      </c>
+      <c r="S12">
+        <v>15.2325878949326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.20596621850596</v>
+        <v>14.89701110738351</v>
       </c>
       <c r="C13">
-        <v>10.10245376543781</v>
+        <v>10.31776369807728</v>
       </c>
       <c r="D13">
-        <v>6.654467907552148</v>
+        <v>6.731998120142192</v>
       </c>
       <c r="E13">
-        <v>7.401654350395627</v>
+        <v>7.379928422994081</v>
       </c>
       <c r="F13">
-        <v>19.42528673250574</v>
+        <v>18.73287390323875</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.689215046087237</v>
+        <v>5.66045089139799</v>
       </c>
       <c r="I13">
-        <v>2.754065469534581</v>
+        <v>2.665664525037173</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>14.91247482584256</v>
+        <v>14.2743067626078</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.41765941513917</v>
       </c>
       <c r="M13">
-        <v>13.39807555283334</v>
+        <v>9.76748736997469</v>
       </c>
       <c r="N13">
-        <v>5.259405346921302</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.384953397575131</v>
+        <v>13.41501971846729</v>
       </c>
       <c r="P13">
-        <v>12.64899543210437</v>
+        <v>5.372871147244021</v>
       </c>
       <c r="Q13">
-        <v>15.3719971107528</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.268249179766755</v>
+      </c>
+      <c r="R13">
+        <v>12.56343406420251</v>
+      </c>
+      <c r="S13">
+        <v>14.80976845144273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.87879828045892</v>
+        <v>14.60278277439143</v>
       </c>
       <c r="C14">
-        <v>10.26017194856966</v>
+        <v>10.45292183778896</v>
       </c>
       <c r="D14">
-        <v>6.707852521964194</v>
+        <v>6.776920490002161</v>
       </c>
       <c r="E14">
-        <v>7.457200694873133</v>
+        <v>7.462392293455945</v>
       </c>
       <c r="F14">
-        <v>18.91725384944223</v>
+        <v>18.27404063881825</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.684984356340834</v>
+        <v>6.658956308130125</v>
       </c>
       <c r="I14">
-        <v>2.795494159562319</v>
+        <v>2.703172959953133</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>14.64149409360195</v>
+        <v>14.05015677606255</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.28309714465473</v>
       </c>
       <c r="M14">
-        <v>13.281993581438</v>
+        <v>9.544065221926196</v>
       </c>
       <c r="N14">
-        <v>4.998767428449328</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.916680218922863</v>
+        <v>13.30083362356627</v>
       </c>
       <c r="P14">
-        <v>12.6874473388418</v>
+        <v>5.105822133302594</v>
       </c>
       <c r="Q14">
-        <v>15.03992813994825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.808010059402672</v>
+      </c>
+      <c r="R14">
+        <v>12.60797108140605</v>
+      </c>
+      <c r="S14">
+        <v>14.51785366995609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.74545163514377</v>
+        <v>14.48010796823464</v>
       </c>
       <c r="C15">
-        <v>10.28396386444234</v>
+        <v>10.46654112700942</v>
       </c>
       <c r="D15">
-        <v>6.708237553820213</v>
+        <v>6.774133427946688</v>
       </c>
       <c r="E15">
-        <v>7.486428263877533</v>
+        <v>7.497197901239485</v>
       </c>
       <c r="F15">
-        <v>18.77013925627674</v>
+        <v>18.14185686816095</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.917532958602949</v>
+        <v>6.89168778075713</v>
       </c>
       <c r="I15">
-        <v>2.818703225414137</v>
+        <v>2.725340186339772</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>14.58141419759484</v>
+        <v>14.0029611152348</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.25909521522714</v>
       </c>
       <c r="M15">
-        <v>13.21481778734139</v>
+        <v>9.487023578884719</v>
       </c>
       <c r="N15">
-        <v>4.947676790038674</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.786974094954106</v>
+        <v>13.23440408851413</v>
       </c>
       <c r="P15">
-        <v>12.70755784977722</v>
+        <v>5.053512110850826</v>
       </c>
       <c r="Q15">
-        <v>14.95652479093294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.680699910124821</v>
+      </c>
+      <c r="R15">
+        <v>12.62842800273977</v>
+      </c>
+      <c r="S15">
+        <v>14.44628080560017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.28235427425934</v>
+        <v>14.04025074140981</v>
       </c>
       <c r="C16">
-        <v>10.06885729176999</v>
+        <v>10.2069768937143</v>
       </c>
       <c r="D16">
-        <v>6.566802375445696</v>
+        <v>6.62244707426485</v>
       </c>
       <c r="E16">
-        <v>7.439332407184225</v>
+        <v>7.446023370573475</v>
       </c>
       <c r="F16">
-        <v>18.63541103092914</v>
+        <v>18.03267181734365</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.722539821058676</v>
+        <v>6.692432814874164</v>
       </c>
       <c r="I16">
-        <v>2.910960636937303</v>
+        <v>2.809585494166462</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>14.67639776391705</v>
+        <v>14.10967224885532</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.36920809309433</v>
       </c>
       <c r="M16">
-        <v>12.84173626493372</v>
+        <v>9.495904416261073</v>
       </c>
       <c r="N16">
-        <v>4.960148015220557</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.667066937888626</v>
+        <v>12.86404775819078</v>
       </c>
       <c r="P16">
-        <v>12.7972836013608</v>
+        <v>5.070734673540811</v>
       </c>
       <c r="Q16">
-        <v>14.98734546435934</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.564688244087314</v>
+      </c>
+      <c r="R16">
+        <v>12.70771893177403</v>
+      </c>
+      <c r="S16">
+        <v>14.49468491808106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.1019831542192</v>
+        <v>13.85951276923784</v>
       </c>
       <c r="C17">
-        <v>9.813725846644802</v>
+        <v>9.929879981101699</v>
       </c>
       <c r="D17">
-        <v>6.427308119372406</v>
+        <v>6.479593880985419</v>
       </c>
       <c r="E17">
-        <v>7.349569704255233</v>
+        <v>7.340628292005548</v>
       </c>
       <c r="F17">
-        <v>18.80833302209679</v>
+        <v>18.19864781094016</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.014016954911583</v>
+        <v>5.978202810709414</v>
       </c>
       <c r="I17">
-        <v>2.960568282790741</v>
+        <v>2.855228775334646</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>14.89057268216282</v>
+        <v>14.30887481365876</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.53202275042864</v>
       </c>
       <c r="M17">
-        <v>12.61405205003955</v>
+        <v>9.615872065319522</v>
       </c>
       <c r="N17">
-        <v>5.094224119158184</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.829732767195253</v>
+        <v>12.63746033904582</v>
       </c>
       <c r="P17">
-        <v>12.84635262842244</v>
+        <v>5.211532066480064</v>
       </c>
       <c r="Q17">
-        <v>15.18807766600889</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.726101314651611</v>
+      </c>
+      <c r="R17">
+        <v>12.74620300292006</v>
+      </c>
+      <c r="S17">
+        <v>14.68769319727403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.1634915077943</v>
+        <v>13.89981089960054</v>
       </c>
       <c r="C18">
-        <v>9.494274443866811</v>
+        <v>9.601470988130229</v>
       </c>
       <c r="D18">
-        <v>6.273438927596915</v>
+        <v>6.327613932273893</v>
       </c>
       <c r="E18">
-        <v>7.347490888274002</v>
+        <v>7.308022784480873</v>
       </c>
       <c r="F18">
-        <v>19.27574224598894</v>
+        <v>18.63051508431122</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.818071637184778</v>
+        <v>4.772832759668508</v>
       </c>
       <c r="I18">
-        <v>2.96684386229818</v>
+        <v>2.858862675495745</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>15.24840686803071</v>
+        <v>14.62631961724386</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.77571985349568</v>
       </c>
       <c r="M18">
-        <v>12.49161000048273</v>
+        <v>9.848259128235402</v>
       </c>
       <c r="N18">
-        <v>5.421459316443573</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.260484110673014</v>
+        <v>12.51475014865797</v>
       </c>
       <c r="P18">
-        <v>12.87342664230033</v>
+        <v>5.54651970108743</v>
       </c>
       <c r="Q18">
-        <v>15.56753683921211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.151058333246633</v>
+      </c>
+      <c r="R18">
+        <v>12.75991664551725</v>
+      </c>
+      <c r="S18">
+        <v>15.03670732493719</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.39077173794267</v>
+        <v>14.0913316243953</v>
       </c>
       <c r="C19">
-        <v>9.191100622366347</v>
+        <v>9.298315011246489</v>
       </c>
       <c r="D19">
-        <v>6.130272210835133</v>
+        <v>6.190077610010428</v>
       </c>
       <c r="E19">
-        <v>7.609524056549517</v>
+        <v>7.52760616061027</v>
       </c>
       <c r="F19">
-        <v>19.90516479148552</v>
+        <v>19.20447221931951</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.440727707505131</v>
+        <v>3.379725413003661</v>
       </c>
       <c r="I19">
-        <v>2.954722178189267</v>
+        <v>2.849576027736506</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>15.68309360005588</v>
+        <v>15.00305122854134</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.05791074672972</v>
       </c>
       <c r="M19">
-        <v>12.46416123444822</v>
+        <v>10.14142187990209</v>
       </c>
       <c r="N19">
-        <v>5.968628229378053</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.869174249735227</v>
+        <v>12.48589496409467</v>
       </c>
       <c r="P19">
-        <v>12.89157402210558</v>
+        <v>6.100615422534903</v>
       </c>
       <c r="Q19">
-        <v>16.03994691710856</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.750715296092617</v>
+      </c>
+      <c r="R19">
+        <v>12.76242720085371</v>
+      </c>
+      <c r="S19">
+        <v>15.46276745929023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.1005149471999</v>
+        <v>14.72793028680006</v>
       </c>
       <c r="C20">
-        <v>8.904300043213356</v>
+        <v>9.032364021407364</v>
       </c>
       <c r="D20">
-        <v>6.012724917551491</v>
+        <v>6.088191699824773</v>
       </c>
       <c r="E20">
-        <v>8.496098051299464</v>
+        <v>8.345433705747942</v>
       </c>
       <c r="F20">
-        <v>21.01660019146343</v>
+        <v>20.20690982575345</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.105606946758293</v>
+        <v>2.022523450863484</v>
       </c>
       <c r="I20">
-        <v>2.857105101057668</v>
+        <v>2.762705082482771</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>16.35747275585042</v>
+        <v>15.56846204468992</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.43960068905953</v>
       </c>
       <c r="M20">
-        <v>12.7057036321653</v>
+        <v>10.6462333317648</v>
       </c>
       <c r="N20">
-        <v>7.015620982576647</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.93993517556156</v>
+        <v>12.72292075383095</v>
       </c>
       <c r="P20">
-        <v>12.8754072514023</v>
+        <v>7.155144420000275</v>
       </c>
       <c r="Q20">
-        <v>16.79778255885276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.80360576670978</v>
+      </c>
+      <c r="R20">
+        <v>12.72266910729462</v>
+      </c>
+      <c r="S20">
+        <v>16.1300956814118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.04895556792131</v>
+        <v>15.61924103953424</v>
       </c>
       <c r="C21">
-        <v>9.164547927704735</v>
+        <v>9.377945319777123</v>
       </c>
       <c r="D21">
-        <v>6.207755457220903</v>
+        <v>6.305870628096553</v>
       </c>
       <c r="E21">
-        <v>8.755376673220715</v>
+        <v>8.580424456036072</v>
       </c>
       <c r="F21">
-        <v>21.59588635969003</v>
+        <v>20.70809598626307</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.873503786629626</v>
+        <v>1.803109831013574</v>
       </c>
       <c r="I21">
-        <v>2.683624876286883</v>
+        <v>2.606718161792877</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>16.44588902225791</v>
+        <v>15.59303173648053</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.32724264937269</v>
       </c>
       <c r="M21">
-        <v>13.39115672953511</v>
+        <v>10.86783199805577</v>
       </c>
       <c r="N21">
-        <v>7.299124100747951</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.45727312420236</v>
+        <v>13.40251814727979</v>
       </c>
       <c r="P21">
-        <v>12.7041328247976</v>
+        <v>7.438656694054356</v>
       </c>
       <c r="Q21">
-        <v>17.01499449089829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.30806911808262</v>
+      </c>
+      <c r="R21">
+        <v>12.55754217249895</v>
+      </c>
+      <c r="S21">
+        <v>16.28516249590426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.63449031043869</v>
+        <v>16.17147329408027</v>
       </c>
       <c r="C22">
-        <v>9.335264093292347</v>
+        <v>9.600913952211153</v>
       </c>
       <c r="D22">
-        <v>6.335875281156551</v>
+        <v>6.447747722454468</v>
       </c>
       <c r="E22">
-        <v>8.876107463851513</v>
+        <v>8.688231282166175</v>
       </c>
       <c r="F22">
-        <v>21.95336485326681</v>
+        <v>21.01897199978962</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.73798729727209</v>
+        <v>1.67575416332375</v>
       </c>
       <c r="I22">
-        <v>2.563138809376267</v>
+        <v>2.52549396940376</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>16.49303304958028</v>
+        <v>15.60130085559531</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.24557350195177</v>
       </c>
       <c r="M22">
-        <v>13.82009170652578</v>
+        <v>11.01802376385458</v>
       </c>
       <c r="N22">
-        <v>7.428558616741271</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.74559105826278</v>
+        <v>13.82787234630445</v>
       </c>
       <c r="P22">
-        <v>12.59203639416375</v>
+        <v>7.567937446136189</v>
       </c>
       <c r="Q22">
-        <v>17.14495691487046</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.58873036252253</v>
+      </c>
+      <c r="R22">
+        <v>12.4504160099579</v>
+      </c>
+      <c r="S22">
+        <v>16.37746805724836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.33819643677382</v>
+        <v>15.89271326146832</v>
       </c>
       <c r="C23">
-        <v>9.232344785162173</v>
+        <v>9.467865621142314</v>
       </c>
       <c r="D23">
-        <v>6.264024457215537</v>
+        <v>6.368456502181935</v>
       </c>
       <c r="E23">
-        <v>8.816787562152824</v>
+        <v>8.635594932167759</v>
       </c>
       <c r="F23">
-        <v>21.7838643089469</v>
+        <v>20.87409148461238</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.809117071659408</v>
+        <v>1.742566582583969</v>
       </c>
       <c r="I23">
-        <v>2.6148199860814</v>
+        <v>2.539563628121528</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839356</v>
       </c>
       <c r="K23">
-        <v>16.48518844479771</v>
+        <v>15.61336358706564</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.30063877281311</v>
       </c>
       <c r="M23">
-        <v>13.59347152407792</v>
+        <v>10.9507390954934</v>
       </c>
       <c r="N23">
-        <v>7.357925941816871</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.59630571676365</v>
+        <v>13.60314139612617</v>
       </c>
       <c r="P23">
-        <v>12.65308449670337</v>
+        <v>7.497360041893224</v>
       </c>
       <c r="Q23">
-        <v>17.09157754375351</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.44350623297941</v>
+      </c>
+      <c r="R23">
+        <v>12.50813248226462</v>
+      </c>
+      <c r="S23">
+        <v>16.3438306294409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.13850277760041</v>
+        <v>14.76251787254938</v>
       </c>
       <c r="C24">
-        <v>8.854798513504667</v>
+        <v>8.976462552061895</v>
       </c>
       <c r="D24">
-        <v>5.99014024366244</v>
+        <v>6.065590480079613</v>
       </c>
       <c r="E24">
-        <v>8.579155951067298</v>
+        <v>8.42407252720146</v>
       </c>
       <c r="F24">
-        <v>21.11339718419644</v>
+        <v>20.2980847517554</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.086141869812715</v>
+        <v>2.002927285037905</v>
       </c>
       <c r="I24">
-        <v>2.837256138613356</v>
+        <v>2.739331748861399</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>16.43516278879934</v>
+        <v>15.63866796863286</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.49309282351064</v>
       </c>
       <c r="M24">
-        <v>12.69766527033595</v>
+        <v>10.69954095504543</v>
       </c>
       <c r="N24">
-        <v>7.087808244545653</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>11.00720810295375</v>
+        <v>12.71474580857153</v>
       </c>
       <c r="P24">
-        <v>12.88429621545766</v>
+        <v>7.227902082957057</v>
       </c>
       <c r="Q24">
-        <v>16.87421338431016</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.86998124448142</v>
+      </c>
+      <c r="R24">
+        <v>12.72832232389858</v>
+      </c>
+      <c r="S24">
+        <v>16.20133103756883</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.73988679364026</v>
+        <v>13.42948711778143</v>
       </c>
       <c r="C25">
-        <v>8.431776727515574</v>
+        <v>8.423459584081847</v>
       </c>
       <c r="D25">
-        <v>5.678270169134871</v>
+        <v>5.720393417986955</v>
       </c>
       <c r="E25">
-        <v>8.312269202257848</v>
+        <v>8.186254489870445</v>
       </c>
       <c r="F25">
-        <v>20.40640397503818</v>
+        <v>19.69394155399479</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.39860485162637</v>
+        <v>2.296786544516385</v>
       </c>
       <c r="I25">
-        <v>3.091422759469424</v>
+        <v>2.968941187145265</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>16.39891622410515</v>
+        <v>15.68020861709925</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.70578966477798</v>
       </c>
       <c r="M25">
-        <v>11.65374054380151</v>
+        <v>10.48996754859842</v>
       </c>
       <c r="N25">
-        <v>6.785508124180637</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.33628436489053</v>
+        <v>11.67942800713882</v>
       </c>
       <c r="P25">
-        <v>13.13856611978638</v>
+        <v>6.927340192838331</v>
       </c>
       <c r="Q25">
-        <v>16.66421344110269</v>
+        <v>10.21610782678033</v>
+      </c>
+      <c r="R25">
+        <v>12.97160185225819</v>
+      </c>
+      <c r="S25">
+        <v>16.07049895277002</v>
       </c>
     </row>
   </sheetData>
